--- a/src/attributions/attributions_saliency_traj_397.xlsx
+++ b/src/attributions/attributions_saliency_traj_397.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002049530390650034</v>
+        <v>0.03162527084350586</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0002650443930178881</v>
+        <v>0.03772843256592751</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01586698554456234</v>
+        <v>0.0846656933426857</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001261034049093723</v>
+        <v>0.1292395293712616</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01629547029733658</v>
+        <v>0.07263222336769104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006415897980332375</v>
+        <v>0.2428677678108215</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004318420309573412</v>
+        <v>0.1702333390712738</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002207883400842547</v>
+        <v>0.4784181714057922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0171451773494482</v>
+        <v>0.3597369790077209</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001121456269174814</v>
+        <v>0.284789115190506</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0016196568030864</v>
+        <v>0.1368962228298187</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01488087512552738</v>
+        <v>0.07560399919748306</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003058895468711853</v>
+        <v>0.1772844940423965</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00967886671423912</v>
+        <v>0.3064974844455719</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005583927500993013</v>
+        <v>0.2107135504484177</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002941817045211792</v>
+        <v>0.2260793894529343</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0004095927870366722</v>
+        <v>0.2776677012443542</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01867779158055782</v>
+        <v>0.5660790801048279</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001803031656891108</v>
+        <v>0.1290021687746048</v>
       </c>
       <c r="T3" t="n">
-        <v>0.002495292108505964</v>
+        <v>0.02351228706538677</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001109614036977291</v>
+        <v>0.1340437978506088</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007987337186932564</v>
+        <v>0.2865612506866455</v>
       </c>
       <c r="W3" t="n">
-        <v>0.002641845494508743</v>
+        <v>0.164735734462738</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001259251614101231</v>
+        <v>0.2465027272701263</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.003034726716578007</v>
+        <v>0.2942613065242767</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.001392936217598617</v>
+        <v>0.09942542761564255</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.002764246426522732</v>
+        <v>0.08273147791624069</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0008780758362263441</v>
+        <v>0.1488257348537445</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.002193230437114835</v>
+        <v>0.2839697003364563</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0007618085364811122</v>
+        <v>0.01884934678673744</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.003495109733194113</v>
+        <v>0.2549032270908356</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.001285968697629869</v>
+        <v>0.2119777202606201</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.001643219729885459</v>
+        <v>0.0703820213675499</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0005946828750893474</v>
+        <v>0.03256139159202576</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.004914629738777876</v>
+        <v>0.1625416874885559</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.005235116928815842</v>
+        <v>0.4257380962371826</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.001178470905870199</v>
+        <v>0.1923496276140213</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.001762616913765669</v>
+        <v>0.1539847999811172</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.002588140312582254</v>
+        <v>0.1106684431433678</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0008761534700170159</v>
+        <v>0.3180931210517883</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.002667693886905909</v>
+        <v>0.08310089260339737</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.00214358139783144</v>
+        <v>0.114115871489048</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.001376329222694039</v>
+        <v>0.0977105051279068</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.001895510358735919</v>
+        <v>0.1034400910139084</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.000452490960014984</v>
+        <v>0.2568266689777374</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0001089005381800234</v>
+        <v>0.3517713844776154</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.911423169076443e-05</v>
+        <v>0.06160084158182144</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.008932074531912804</v>
+        <v>0.100477322936058</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0009675822220742702</v>
+        <v>0.2908612787723541</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.005884882993996143</v>
+        <v>0.6389579176902771</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.003257829463109374</v>
+        <v>0.08609262108802795</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.002084448700770736</v>
+        <v>0.1680410504341125</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.005744603462517262</v>
+        <v>0.3860239684581757</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.005776541773229837</v>
+        <v>0.1443049609661102</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0004888944677077234</v>
+        <v>0.3511412143707275</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.0003085514472331852</v>
+        <v>0.009272973984479904</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.005528885871171951</v>
+        <v>0.2287115454673767</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.001888155937194824</v>
+        <v>0.2550393044948578</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.003758303355425596</v>
+        <v>0.1203426793217659</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.004218536894768476</v>
+        <v>0.2260375171899796</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0002791518345475197</v>
+        <v>0.2438261806964874</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.001553775276988745</v>
+        <v>0.5885513424873352</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.003081532893702388</v>
+        <v>0.4112167358398438</v>
       </c>
       <c r="BL3" t="n">
-        <v>2.315649180673063e-05</v>
+        <v>0.1387028992176056</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0002265198418172076</v>
+        <v>0.1438082158565521</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.004921469371765852</v>
+        <v>0.1073866710066795</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.0004124554106965661</v>
+        <v>0.03523540869355202</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.001516723306849599</v>
+        <v>0.3237792551517487</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.001888127182610333</v>
+        <v>0.07081658393144608</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0009136938606388867</v>
+        <v>0.2720748484134674</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.003112435573711991</v>
+        <v>0.006838507950305939</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.003395328065380454</v>
+        <v>0.1423170566558838</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.00232130941003561</v>
+        <v>0.2746007144451141</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0009905716869980097</v>
+        <v>0.007674155756831169</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.003073920030146837</v>
+        <v>0.05638847872614861</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.001958972541615367</v>
+        <v>0.005010370165109634</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.00825525913387537</v>
+        <v>0.04164232313632965</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.005250665359199047</v>
+        <v>0.0214359275996685</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.000339907594025135</v>
+        <v>0.1321785897016525</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.001033538719639182</v>
+        <v>0.1002960354089737</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.009518339298665524</v>
+        <v>0.09560999274253845</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0002668308443389833</v>
+        <v>0.01779894530773163</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.002500803209841251</v>
+        <v>0.132215142250061</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.002649329835548997</v>
+        <v>0.01708032190799713</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0009651028085500002</v>
+        <v>0.03292274847626686</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.003816379699856043</v>
+        <v>0.0655248835682869</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.001670672325417399</v>
+        <v>0.0481133796274662</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0002467675949446857</v>
+        <v>0.01825269311666489</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.034632441587746e-05</v>
+        <v>0.07569809257984161</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.002681901678442955</v>
+        <v>0.07818291336297989</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.002976642921566963</v>
+        <v>0.04688097536563873</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.008027615025639534</v>
+        <v>0.1270141005516052</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.001876388676464558</v>
+        <v>0.08476541191339493</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.002824070863425732</v>
+        <v>0.03296168893575668</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.00478012952953577</v>
+        <v>0.2672815322875977</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.000756326480768621</v>
+        <v>0.1054653599858284</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.001479573780670762</v>
+        <v>0.1468823850154877</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0007225882727652788</v>
+        <v>0.007496215403079987</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.0008184785256162286</v>
+        <v>0.1572223007678986</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.000182581934495829</v>
+        <v>0.009429074823856354</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.002219622023403645</v>
+        <v>0.1136866360902786</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.002793824998661876</v>
+        <v>0.01366875972598791</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0008771698921918869</v>
+        <v>0.08604976534843445</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.004669058602303267</v>
+        <v>0.009885881096124649</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.001354288775473833</v>
+        <v>0.006683114916086197</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0008143223240040243</v>
+        <v>0.01344452053308487</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0005762936198152602</v>
+        <v>0.05353251099586487</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.003925079479813576</v>
+        <v>0.06578657031059265</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.004435000475496054</v>
+        <v>0.179532527923584</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.008456271141767502</v>
+        <v>0.4592058956623077</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.007484355941414833</v>
+        <v>0.2537809908390045</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.003359126392751932</v>
+        <v>0.09488028287887573</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.00191205320879817</v>
+        <v>0.4142163395881653</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.002045170404016972</v>
+        <v>0.6114807724952698</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.002188129816204309</v>
+        <v>0.177513986825943</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.001110553042963147</v>
+        <v>0.1180986911058426</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.002579801250249147</v>
+        <v>0.3363185524940491</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0001176350051537156</v>
+        <v>0.1623699367046356</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.001805877080187201</v>
+        <v>0.004056801553815603</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.000672272639349103</v>
+        <v>0.1524288803339005</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.001512710703536868</v>
+        <v>0.2524685561656952</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.002037838101387024</v>
+        <v>0.4199417531490326</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0004544676630757749</v>
+        <v>0.09646087139844894</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.002166200196370482</v>
+        <v>0.0695076584815979</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.003131705103442073</v>
+        <v>0.4124146103858948</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.001060638460330665</v>
+        <v>0.06189199537038803</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0002567140327300876</v>
+        <v>0.007657818496227264</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0004761565942317247</v>
+        <v>0.3427500128746033</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0003413774829823524</v>
+        <v>0.06263824552297592</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.001911278115585446</v>
+        <v>0.01447414513677359</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0009241118095815182</v>
+        <v>0.1682387888431549</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.001981353387236595</v>
+        <v>0.1463258564472198</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0009998462628573179</v>
+        <v>0.05317425355315208</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.001399494707584381</v>
+        <v>0.0534832701086998</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.001780255348421633</v>
+        <v>0.03921831399202347</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0005661369650624692</v>
+        <v>0.05914308503270149</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.001286228885874152</v>
+        <v>0.1225694492459297</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.00278707523830235</v>
+        <v>0.02534383349120617</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.0002776719629764557</v>
+        <v>0.000973002053797245</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.001776851830072701</v>
+        <v>0.09665876626968384</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.004147406667470932</v>
+        <v>0.1128817498683929</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0007229801849462092</v>
+        <v>0.02308573573827744</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.00156760320533067</v>
+        <v>0.03479168564081192</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.002255990402773023</v>
+        <v>0.02066291123628616</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.0001941394875757396</v>
+        <v>0.1388169676065445</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.002200427930802107</v>
+        <v>0.1140539795160294</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.002452176529914141</v>
+        <v>0.06765859574079514</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.0007690483471378684</v>
+        <v>0.1644273698329926</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.002547876909375191</v>
+        <v>0.08196963369846344</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.000271680299192667</v>
+        <v>0.06204117834568024</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.001987108495086432</v>
+        <v>0.007176883518695831</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.001542665995657444</v>
+        <v>0.03688505664467812</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0005650288658216596</v>
+        <v>0.04027898982167244</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.0004196045629214495</v>
+        <v>0.0474071092903614</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.002147293649613857</v>
+        <v>0.1345186978578568</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.002792899729683995</v>
+        <v>0.002532759681344032</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.0001259962591575459</v>
+        <v>0.07131999731063843</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.003425361355766654</v>
+        <v>0.01326289772987366</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.0006641660002060235</v>
+        <v>0.007519763894379139</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0002528794575482607</v>
+        <v>0.01622699201107025</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0005189749645069242</v>
+        <v>0.1176319271326065</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.004052366595715284</v>
+        <v>0.1059758812189102</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0009259132784791291</v>
+        <v>0.05628740787506104</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.00228284508921206</v>
+        <v>0.2839165925979614</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.001920612761750817</v>
+        <v>0.1024135649204254</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.002339623169973493</v>
+        <v>0.1711770743131638</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.002985449740663171</v>
+        <v>0.06967349350452423</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.002059436636045575</v>
+        <v>0.1792202293872833</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0009172818972729146</v>
+        <v>0.0178702101111412</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.00161836133338511</v>
+        <v>0.2253352105617523</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.004932283889502287</v>
+        <v>0.01129080727696419</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.001192726893350482</v>
+        <v>0.1169391050934792</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.005317044444382191</v>
+        <v>0.1126578971743584</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.0003149970434606075</v>
+        <v>0.1660869568586349</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.003412555437535048</v>
+        <v>0.07220038026571274</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.002142224228009582</v>
+        <v>0.1886527985334396</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.002736875554546714</v>
+        <v>0.3677631318569183</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.001647703349590302</v>
+        <v>0.06224904954433441</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.001232202514074743</v>
+        <v>0.0004731416702270508</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.002553313737735152</v>
+        <v>0.0005071312189102173</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0004439595504663885</v>
+        <v>0.007397320121526718</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.0002021396649070084</v>
+        <v>0.001028358936309814</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.001039124676026404</v>
+        <v>0.1339389234781265</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.001368430210277438</v>
+        <v>0.2038869559764862</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.0001823160710046068</v>
+        <v>0.03813127800822258</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.002078844234347343</v>
+        <v>0.1771626472473145</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.0001362758921459317</v>
+        <v>0.05629214644432068</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.0005945549346506596</v>
+        <v>0.03107860311865807</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.0009774989448487759</v>
+        <v>0.01541650667786598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.000251596444286406</v>
+        <v>0.001484310487285256</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0002493427600711584</v>
+        <v>0.008668179623782635</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005446260329335928</v>
+        <v>0.0001452506548957899</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001510487782070413</v>
+        <v>0.004304610192775726</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0009036793489940464</v>
+        <v>0.001329988008365035</v>
       </c>
       <c r="F4" t="n">
-        <v>5.884321581106633e-07</v>
+        <v>0.001576371025294065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002497996320016682</v>
+        <v>0.0002762774820439517</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001299560681218281</v>
+        <v>0.0001673279621172696</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0008136011310853064</v>
+        <v>2.611265517771244e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>8.634456025902182e-05</v>
+        <v>0.002047281013801694</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001233339280588552</v>
+        <v>0.005388274788856506</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006786423036828637</v>
+        <v>0.0003257568459957838</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0001527773420093581</v>
+        <v>0.003968197852373123</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000716302078217268</v>
+        <v>0.00263300584629178</v>
       </c>
       <c r="O4" t="n">
-        <v>7.660541450604796e-05</v>
+        <v>0.003127713222056627</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0002237594744656235</v>
+        <v>0.0005312899593263865</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0001992746838368475</v>
+        <v>0.001313456916250288</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0008367073605768383</v>
+        <v>0.0007712588994763792</v>
       </c>
       <c r="S4" t="n">
-        <v>1.94057010958204e-05</v>
+        <v>4.401081241667271e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>9.185855742543936e-05</v>
+        <v>0.00112175103276968</v>
       </c>
       <c r="U4" t="n">
-        <v>9.685853729024529e-05</v>
+        <v>0.000453781511168927</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0002961768477689475</v>
+        <v>0.001113560050725937</v>
       </c>
       <c r="W4" t="n">
-        <v>1.506572880316526e-05</v>
+        <v>0.00017257769650314</v>
       </c>
       <c r="X4" t="n">
-        <v>3.683453178382479e-05</v>
+        <v>2.926727756857872e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0001583508565090597</v>
+        <v>0.00139780854806304</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.87217805837281e-05</v>
+        <v>0.0004997144569642842</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.225367618142627e-05</v>
+        <v>0.0005420179222710431</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.86543683311902e-05</v>
+        <v>0.0007310201763175428</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0001120791785069741</v>
+        <v>0.001425561145879328</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0001500635262345895</v>
+        <v>0.0001601177355041727</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.614097947021946e-05</v>
+        <v>0.0003278868971392512</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0001359673333354294</v>
+        <v>0.001141460845246911</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.560264172439929e-05</v>
+        <v>0.0006331569165922701</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.244233034318313e-05</v>
+        <v>2.555258106440306e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0002128687046933919</v>
+        <v>0.000582616834435612</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0002968238841276616</v>
+        <v>0.0005864003906026483</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.619898441480473e-05</v>
+        <v>0.0007384820492006838</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0002941639395430684</v>
+        <v>0.0007256260141730309</v>
       </c>
       <c r="AM4" t="n">
-        <v>7.115799962775782e-05</v>
+        <v>4.580897439154796e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.626210572198033e-05</v>
+        <v>0.0005191301461309195</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.347951274510706e-05</v>
+        <v>0.000565224327147007</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0003263010876253247</v>
+        <v>0.001265541068278253</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.873799919849262e-05</v>
+        <v>0.0003094147832598537</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.000124924918054603</v>
+        <v>0.0004478695918805897</v>
       </c>
       <c r="AS4" t="n">
-        <v>6.742412369931117e-05</v>
+        <v>0.0004869454132858664</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0001841448247432709</v>
+        <v>0.0009279458317905664</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0004643423308152705</v>
+        <v>0.005773164331912994</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0006012928788550198</v>
+        <v>0.0006573439459316432</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0001062206283677369</v>
+        <v>0.001636322122067213</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0002244335337309167</v>
+        <v>0.001291359192691743</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.0006264057010412216</v>
+        <v>0.0001540992234367877</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0001299016585107893</v>
+        <v>0.0007326297927647829</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.000208484852919355</v>
+        <v>0.0006228039273992181</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0002424253907520324</v>
+        <v>0.001140775391831994</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.444383087800816e-05</v>
+        <v>0.0008005014387890697</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0001011335843941197</v>
+        <v>0.001099766348488629</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0001243323495145887</v>
+        <v>0.0009943586774170399</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.988604708458297e-05</v>
+        <v>0.0006653486052528024</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0001746174384607002</v>
+        <v>0.00218521011993289</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0003266293788328767</v>
+        <v>0.0009600330959074199</v>
       </c>
       <c r="BI4" t="n">
-        <v>7.204245048342273e-05</v>
+        <v>0.0006656541954725981</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.000155794812599197</v>
+        <v>0.001057240646332502</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0002206755307270214</v>
+        <v>0.0001649821933824569</v>
       </c>
       <c r="BL4" t="n">
-        <v>8.805413017398678e-06</v>
+        <v>0.001078226137906313</v>
       </c>
       <c r="BM4" t="n">
-        <v>3.288731750217266e-05</v>
+        <v>0.0002817300555761904</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0003126125084236264</v>
+        <v>0.0004331140662543476</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0001386924705002457</v>
+        <v>0.001172630931250751</v>
       </c>
       <c r="BP4" t="n">
-        <v>6.772551569156349e-05</v>
+        <v>0.0008952982607297599</v>
       </c>
       <c r="BQ4" t="n">
-        <v>4.494033782975748e-05</v>
+        <v>0.0001207629247801378</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0001107406278606504</v>
+        <v>0.0002313257718924433</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0001894256274681538</v>
+        <v>0.0002313116565346718</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0001809110108297318</v>
+        <v>0.0002953002403955907</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.987288826261647e-05</v>
+        <v>0.0004106467240490019</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0002293119032401592</v>
+        <v>0.003008515806868672</v>
       </c>
       <c r="BW4" t="n">
-        <v>5.801673250971362e-05</v>
+        <v>1.188911755889421e-05</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.000168090860825032</v>
+        <v>0.000469737482490018</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.0002390040026511997</v>
+        <v>0.0003269679727964103</v>
       </c>
       <c r="BZ4" t="n">
-        <v>8.396490011364222e-05</v>
+        <v>0.00133721309248358</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.0001526425185147673</v>
+        <v>0.000411126995459199</v>
       </c>
       <c r="CB4" t="n">
-        <v>6.09475901001133e-05</v>
+        <v>0.0005797147750854492</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0004427261010278016</v>
+        <v>0.0005883335252292454</v>
       </c>
       <c r="CD4" t="n">
-        <v>3.180676139891148e-05</v>
+        <v>0.0005765872774645686</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0001816579751903191</v>
+        <v>0.001535177696496248</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0001237517863046378</v>
+        <v>0.0004579409142024815</v>
       </c>
       <c r="CG4" t="n">
-        <v>4.250578422215767e-05</v>
+        <v>0.0001718669518595561</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0001932233280967921</v>
+        <v>0.0001052731386153027</v>
       </c>
       <c r="CI4" t="n">
-        <v>4.060784704051912e-05</v>
+        <v>0.0003443103632889688</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3.208315320080146e-06</v>
+        <v>0.0003104078932665288</v>
       </c>
       <c r="CK4" t="n">
-        <v>8.323769407070358e-08</v>
+        <v>7.373288099188358e-05</v>
       </c>
       <c r="CL4" t="n">
-        <v>8.379123755730689e-05</v>
+        <v>0.0002939882106147707</v>
       </c>
       <c r="CM4" t="n">
-        <v>5.965701711829752e-05</v>
+        <v>0.0006224305252544582</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0004730005748569965</v>
+        <v>1.144455745816231e-05</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0001325333141721785</v>
+        <v>0.001274112495593727</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0001951888261828572</v>
+        <v>0.001080684480257332</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2.163554563594516e-05</v>
+        <v>0.001179318292997777</v>
       </c>
       <c r="CR4" t="n">
-        <v>6.678514182567596e-05</v>
+        <v>0.0009298455552197993</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.643554423935711e-05</v>
+        <v>0.0003690799931064248</v>
       </c>
       <c r="CT4" t="n">
-        <v>4.946348781231791e-05</v>
+        <v>0.001663897186517715</v>
       </c>
       <c r="CU4" t="n">
-        <v>9.447037882637233e-05</v>
+        <v>0.0001564033882459626</v>
       </c>
       <c r="CV4" t="n">
-        <v>3.173497316311114e-05</v>
+        <v>0.0005217929719947278</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.0002073902287520468</v>
+        <v>0.001176434685476124</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0001223573635797948</v>
+        <v>0.0004322109452914447</v>
       </c>
       <c r="CY4" t="n">
-        <v>4.754607653012499e-05</v>
+        <v>0.0008127561304718256</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.0002570323995314538</v>
+        <v>0.0001126722490880638</v>
       </c>
       <c r="DA4" t="n">
-        <v>6.316893268376589e-05</v>
+        <v>0.0004142821417190135</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.746545240166597e-05</v>
+        <v>0.0002612565003801137</v>
       </c>
       <c r="DC4" t="n">
-        <v>2.636241333675571e-05</v>
+        <v>2.208667865488678e-05</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.000130496802739799</v>
+        <v>0.0002010792668443173</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0001682032307144254</v>
+        <v>0.0006265353295020759</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.0002624621847644448</v>
+        <v>0.001156852813437581</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.0003601720673032105</v>
+        <v>0.0003903041651938111</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.0001347212237305939</v>
+        <v>0.002133964560925961</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.000228206001338549</v>
+        <v>0.001062180614098907</v>
       </c>
       <c r="DJ4" t="n">
-        <v>9.895848779706284e-05</v>
+        <v>0.000156207664986141</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0002131597866537049</v>
+        <v>0.0005014413618482649</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0001256792165804654</v>
+        <v>0.001023913966491818</v>
       </c>
       <c r="DM4" t="n">
-        <v>8.442657417617738e-05</v>
+        <v>0.0001656076492508873</v>
       </c>
       <c r="DN4" t="n">
-        <v>4.499992792261764e-05</v>
+        <v>0.001605214201845229</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0001421547203790396</v>
+        <v>0.0007682894356548786</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.000118300027679652</v>
+        <v>0.000593498523812741</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.0001623311691218987</v>
+        <v>3.875000402331352e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>3.228463901905343e-05</v>
+        <v>0.0001092606544261798</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0002027949667535722</v>
+        <v>0.001502359285950661</v>
       </c>
       <c r="DT4" t="n">
-        <v>5.827588029205799e-05</v>
+        <v>1.975579652935266e-05</v>
       </c>
       <c r="DU4" t="n">
-        <v>6.617708277190104e-05</v>
+        <v>0.0001383689668728039</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.0001628481695661321</v>
+        <v>0.0005116960965096951</v>
       </c>
       <c r="DW4" t="n">
-        <v>5.928873724769801e-05</v>
+        <v>0.0006223045638762414</v>
       </c>
       <c r="DX4" t="n">
-        <v>4.748404171550646e-05</v>
+        <v>9.006696927826852e-06</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0001076243643183261</v>
+        <v>0.001874085981398821</v>
       </c>
       <c r="DZ4" t="n">
-        <v>5.965826494502835e-05</v>
+        <v>0.0003868882195092738</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0001043885640683584</v>
+        <v>0.001023849006742239</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0001635250227991492</v>
+        <v>0.0001647685712669045</v>
       </c>
       <c r="EC4" t="n">
-        <v>4.384759449749254e-05</v>
+        <v>4.963121318724006e-05</v>
       </c>
       <c r="ED4" t="n">
-        <v>9.325993596576154e-05</v>
+        <v>0.0002714745060075074</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.0001312858221353963</v>
+        <v>0.0002594263933133334</v>
       </c>
       <c r="EF4" t="n">
-        <v>4.46141893917229e-05</v>
+        <v>0.0001314757391810417</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.000298998667858541</v>
+        <v>0.0006662821397185326</v>
       </c>
       <c r="EH4" t="n">
-        <v>7.342512253671885e-05</v>
+        <v>0.0002398026990704238</v>
       </c>
       <c r="EI4" t="n">
-        <v>3.08750823023729e-05</v>
+        <v>8.022091060411185e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.0001062104201992042</v>
+        <v>0.0004288652853574604</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.0002313164877705276</v>
+        <v>8.680051541887224e-05</v>
       </c>
       <c r="EL4" t="n">
-        <v>6.286994175752625e-05</v>
+        <v>0.0004436884773895144</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.0001213238283526152</v>
+        <v>0.0004212943895254284</v>
       </c>
       <c r="EN4" t="n">
-        <v>9.829142072703689e-05</v>
+        <v>6.730170571245253e-05</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.0001314599649049342</v>
+        <v>0.0009135121945291758</v>
       </c>
       <c r="EP4" t="n">
-        <v>8.222741598729044e-05</v>
+        <v>0.001046384801156819</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0001021644566208124</v>
+        <v>0.00036176762660034</v>
       </c>
       <c r="ER4" t="n">
-        <v>4.408862514537759e-05</v>
+        <v>0.001003514160402119</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0001249832421308383</v>
+        <v>0.000599317136220634</v>
       </c>
       <c r="ET4" t="n">
-        <v>2.36739324463997e-05</v>
+        <v>0.002490937942638993</v>
       </c>
       <c r="EU4" t="n">
-        <v>4.862876085098833e-05</v>
+        <v>7.443776121363044e-05</v>
       </c>
       <c r="EV4" t="n">
-        <v>4.765911216964014e-05</v>
+        <v>0.0005955220549367368</v>
       </c>
       <c r="EW4" t="n">
-        <v>9.285158012062311e-05</v>
+        <v>0.0003922389587387443</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.020987474475987e-05</v>
+        <v>0.0004685358435381204</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0002000509266508743</v>
+        <v>0.001206289744004607</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.0001214292860822752</v>
+        <v>0.0002007590519497171</v>
       </c>
       <c r="FA4" t="n">
-        <v>2.501003564248094e-07</v>
+        <v>0.0004833711427636445</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0001786912616807967</v>
+        <v>1.873925793915987e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>9.891424269881099e-06</v>
+        <v>0.0004943229723721743</v>
       </c>
       <c r="FD4" t="n">
-        <v>2.293623401783407e-05</v>
+        <v>0.0002921510604210198</v>
       </c>
       <c r="FE4" t="n">
-        <v>4.454002919374034e-05</v>
+        <v>2.000058884732425e-05</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.0001523017708677799</v>
+        <v>0.0002790605649352074</v>
       </c>
       <c r="FG4" t="n">
-        <v>2.765648332569981e-06</v>
+        <v>0.0001397625601384789</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0001165685171145014</v>
+        <v>0.0006468890933319926</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.0001221180718857795</v>
+        <v>0.0004383305204100907</v>
       </c>
       <c r="FJ4" t="n">
-        <v>9.607071115169674e-05</v>
+        <v>0.0009821983985602856</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0002763783559203148</v>
+        <v>1.016828173305839e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.0002156287373509258</v>
+        <v>0.0001840669719967991</v>
       </c>
       <c r="FM4" t="n">
-        <v>5.453487756312825e-05</v>
+        <v>0.0004155065689701587</v>
       </c>
       <c r="FN4" t="n">
-        <v>8.135786629281938e-05</v>
+        <v>0.0003456028643995523</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.0001534042094135657</v>
+        <v>0.001042642397806048</v>
       </c>
       <c r="FP4" t="n">
-        <v>4.074228127137758e-05</v>
+        <v>0.001050102990120649</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.0001477923360653222</v>
+        <v>0.001991718076169491</v>
       </c>
       <c r="FR4" t="n">
-        <v>7.417775123030879e-06</v>
+        <v>0.0001933574385475367</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0002367196429986507</v>
+        <v>0.001819915138185024</v>
       </c>
       <c r="FT4" t="n">
-        <v>1.68589576787781e-06</v>
+        <v>0.003085345262661576</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.0001095444094971754</v>
+        <v>0.0003314156201668084</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.000121959688840434</v>
+        <v>0.0001810241228668019</v>
       </c>
       <c r="FW4" t="n">
-        <v>3.348843165440485e-06</v>
+        <v>0.0008653440163470805</v>
       </c>
       <c r="FX4" t="n">
-        <v>1.041733594320249e-05</v>
+        <v>0.0006618152838200331</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.0001180757753900252</v>
+        <v>0.0008533507352694869</v>
       </c>
       <c r="FZ4" t="n">
-        <v>7.597952208016068e-05</v>
+        <v>0.0007678400143049657</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.0001398508320562541</v>
+        <v>0.001089800032787025</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0002053274365607649</v>
+        <v>0.000654515577480197</v>
       </c>
       <c r="GC4" t="n">
-        <v>2.17675078602042e-05</v>
+        <v>0.001068940153345466</v>
       </c>
       <c r="GD4" t="n">
-        <v>7.747894414933398e-05</v>
+        <v>0.0007985644624568522</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0001213772557093762</v>
+        <v>0.001291281543672085</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0001331027451669797</v>
+        <v>0.0004319859144743532</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0001325947378063574</v>
+        <v>0.0004176758229732513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001827643252909184</v>
+        <v>2.010720527323429e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002631469396874309</v>
+        <v>0.0001917182671604678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000659782555885613</v>
+        <v>1.611439984117169e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002577335108071566</v>
+        <v>9.387127647642046e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001292276196181774</v>
+        <v>8.816247282084078e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0007921817596070468</v>
+        <v>0.0001000983684207313</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001668892451561987</v>
+        <v>1.414433427271433e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001013702363707125</v>
+        <v>2.737040267675184e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006216038018465042</v>
+        <v>1.961224734259304e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003152641467750072</v>
+        <v>1.386218900734093e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002188886748626828</v>
+        <v>0.0001796166179701686</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00318665849044919</v>
+        <v>3.064694465138018e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001361937262117863</v>
+        <v>8.913591591408476e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.003281489247456193</v>
+        <v>0.0001184580469271168</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001161733292974532</v>
+        <v>0.000126878687296994</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002816026331856847</v>
+        <v>3.370738704688847e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0004872524586971849</v>
+        <v>3.277629366493784e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.006767240818589926</v>
+        <v>2.000251697609201e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>3.38139507221058e-05</v>
+        <v>1.89688380487496e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.000140559728606604</v>
+        <v>4.791097308043391e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0003129428077954799</v>
+        <v>1.406801038683625e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001897822483442724</v>
+        <v>4.270002136763651e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0009962762705981731</v>
+        <v>1.606553087185603e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001216392265632749</v>
+        <v>4.144514605286531e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001370151294395328</v>
+        <v>7.481721695512533e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0009882340673357248</v>
+        <v>7.863885912229307e-06</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001099977176636457</v>
+        <v>3.68229984815116e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0008227309444919229</v>
+        <v>2.268036041641608e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0007498152554035187</v>
+        <v>3.144355287076905e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0006663608946837485</v>
+        <v>4.775650086230598e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.002248678123578429</v>
+        <v>2.465604484314099e-05</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.002678433433175087</v>
+        <v>3.045798621315043e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0004285816103219986</v>
+        <v>1.754215554683469e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.770505130290985e-06</v>
+        <v>4.340413215686567e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.003047938924282789</v>
+        <v>7.851424015825614e-06</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.001584556652233005</v>
+        <v>2.351409966649953e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0004312667297199368</v>
+        <v>6.66403957438888e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.001316749257966876</v>
+        <v>4.342111787991598e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.001375849591568112</v>
+        <v>7.213706794573227e-06</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.001853550784289837</v>
+        <v>2.037122976616956e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.001317048212513328</v>
+        <v>1.070550206350163e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.003643143456429243</v>
+        <v>2.707063686102629e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0001804072235245258</v>
+        <v>1.839186552388128e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0008010825258679688</v>
+        <v>1.064569823938655e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>3.617685797507875e-05</v>
+        <v>3.966540134570096e-06</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0004607606679201126</v>
+        <v>4.095499025424942e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.002236373024061322</v>
+        <v>0.0001271824148716405</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.003164480440318584</v>
+        <v>4.769800398207735e-06</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.322023596614599e-05</v>
+        <v>3.019769428647123e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0006650618743151426</v>
+        <v>1.683153459453024e-05</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.00344407744705677</v>
+        <v>4.15804133808706e-05</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.001026533311232924</v>
+        <v>4.134754999540746e-05</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0007561239181086421</v>
+        <v>1.318378963333089e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.003757587401196361</v>
+        <v>3.195412864442915e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.001409352058544755</v>
+        <v>1.319150396739133e-05</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.001909327693283558</v>
+        <v>5.921421688981354e-05</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.001031107502058148</v>
+        <v>2.340821083635092e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.0006956834113225341</v>
+        <v>3.109438694082201e-05</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.002980954479426146</v>
+        <v>0.000140785297844559</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.001851487206295133</v>
+        <v>5.784751556348056e-05</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.00160848640371114</v>
+        <v>3.149122494505718e-05</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.003918424248695374</v>
+        <v>3.238252975279465e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0005813877214677632</v>
+        <v>1.368263201584341e-05</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.0002128772612195462</v>
+        <v>2.578019120846875e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0002229182573501021</v>
+        <v>4.068469934281893e-06</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.001782817067578435</v>
+        <v>1.868352228484582e-05</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0003351246705278754</v>
+        <v>1.478644026065012e-05</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.000748923048377037</v>
+        <v>8.26924224384129e-06</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0007069684215821326</v>
+        <v>1.905609315144829e-05</v>
       </c>
       <c r="BR5" t="n">
-        <v>5.194885306991637e-05</v>
+        <v>3.148778341710567e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.001705183531157672</v>
+        <v>1.32012864924036e-05</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.001004580175504088</v>
+        <v>2.885692993004341e-06</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.001983013702556491</v>
+        <v>2.454984132782556e-05</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.001759686274453998</v>
+        <v>7.057798939058557e-05</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0003879137802869081</v>
+        <v>2.00540671357885e-05</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.002076731529086828</v>
+        <v>2.642902290972415e-05</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0003262151731178164</v>
+        <v>5.173011231818236e-06</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.001133906771428883</v>
+        <v>2.121533725585323e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.000910030968952924</v>
+        <v>1.126888128055725e-05</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.000298490165732801</v>
+        <v>6.941111223568441e-06</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.002828525146469474</v>
+        <v>3.723933559740544e-06</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0005269458051770926</v>
+        <v>5.50378899788484e-07</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.001647797995246947</v>
+        <v>3.493060285109095e-05</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0001964530383702368</v>
+        <v>9.604480766256529e-08</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0003914397093467414</v>
+        <v>7.894763257354498e-06</v>
       </c>
       <c r="CH5" t="n">
-        <v>6.079434388084337e-05</v>
+        <v>1.976939984160708e-06</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0005767473485320807</v>
+        <v>1.336964214715408e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.000125926366308704</v>
+        <v>2.153742389054969e-05</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0001390686666127294</v>
+        <v>1.615942437638296e-06</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0007249179761856794</v>
+        <v>6.64367871650029e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0006228374550119042</v>
+        <v>2.617159771034494e-05</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0001318802387686446</v>
+        <v>2.732931716309395e-05</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0004004070651717484</v>
+        <v>5.703478791474481e-07</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0007989703444764018</v>
+        <v>2.070433038170449e-05</v>
       </c>
       <c r="CQ5" t="n">
-        <v>5.391030572354794e-05</v>
+        <v>1.189841350424103e-05</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.0001967241696547717</v>
+        <v>7.397029548883438e-06</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0003357006062287837</v>
+        <v>5.273801798466593e-05</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.002430371474474669</v>
+        <v>6.940802995814011e-05</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.001143962843343616</v>
+        <v>1.23917880046065e-05</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0004317471175454557</v>
+        <v>1.031399278872414e-06</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.00142344506457448</v>
+        <v>2.671654692676384e-05</v>
       </c>
       <c r="CX5" t="n">
-        <v>3.120564360870048e-05</v>
+        <v>7.04840749676805e-06</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.526682171970606e-05</v>
+        <v>1.457684356864775e-05</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0004441333294380456</v>
+        <v>4.413735041453037e-06</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0008499573450535536</v>
+        <v>1.792015245882794e-05</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.000206659737159498</v>
+        <v>1.566659011587035e-05</v>
       </c>
       <c r="DC5" t="n">
-        <v>5.294014408718795e-05</v>
+        <v>1.652477749303216e-06</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.00104604265652597</v>
+        <v>6.782508535252418e-06</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0002443945268169045</v>
+        <v>2.804745963658206e-05</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.002779279137030244</v>
+        <v>4.93049701617565e-05</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.003996375948190689</v>
+        <v>4.126377825741656e-05</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0004407820524647832</v>
+        <v>1.985732524190098e-05</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0002614175609778613</v>
+        <v>1.926590630318969e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.003583809128031135</v>
+        <v>1.943702955031767e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.001317058457061648</v>
+        <v>3.32837225869298e-05</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0007509836577810347</v>
+        <v>1.046457327902317e-05</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0001636700617382303</v>
+        <v>8.417482604272664e-06</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0004718349082395434</v>
+        <v>7.965140866872389e-06</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.000345372740412131</v>
+        <v>1.07999821921112e-05</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.002089540008455515</v>
+        <v>3.824607574642869e-06</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0003527177323121578</v>
+        <v>6.957484583836049e-05</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0009158239117823541</v>
+        <v>2.32001857511932e-05</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.000617758953012526</v>
+        <v>3.784854925470427e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0006516262656077743</v>
+        <v>1.283716301259119e-05</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0003396958054509014</v>
+        <v>1.207893546961714e-05</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0007042000652290881</v>
+        <v>4.973576778866118e-06</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.0004771195526700467</v>
+        <v>8.838031135383062e-06</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.001383066643029451</v>
+        <v>1.916203291330021e-05</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0001308448408963159</v>
+        <v>3.444984940870199e-06</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0005444078124128282</v>
+        <v>4.787282523466274e-05</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0007958841742947698</v>
+        <v>7.493194971175399e-06</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0005220325547270477</v>
+        <v>3.155041122226976e-05</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0008507691090926528</v>
+        <v>2.943871913885232e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0009121570037677884</v>
+        <v>4.175598951405846e-05</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0003903385659214109</v>
+        <v>1.826161496865097e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.000884785782545805</v>
+        <v>7.358560651482549e-06</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.004343812353909016</v>
+        <v>2.544073868193664e-05</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0002957114193122834</v>
+        <v>5.104902356833918e-06</v>
       </c>
       <c r="EI5" t="n">
-        <v>5.808440619148314e-05</v>
+        <v>4.84020056319423e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0003672324528452009</v>
+        <v>1.42235257953871e-05</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.0002245207724627107</v>
+        <v>1.914806489367038e-06</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0001641965791350231</v>
+        <v>4.448432446224615e-05</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0002852275792974979</v>
+        <v>5.929723556619138e-06</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.001222064369358122</v>
+        <v>2.547510575823253e-06</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0008531028870493174</v>
+        <v>5.317270733939949e-06</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.001175191602669656</v>
+        <v>3.059261644011713e-08</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0004983642720617354</v>
+        <v>2.224266063421965e-05</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.0008530764025636017</v>
+        <v>1.82744552148506e-05</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.001486752997152507</v>
+        <v>3.000403921760153e-05</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.002759101334959269</v>
+        <v>5.48537791473791e-05</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0006217920454218984</v>
+        <v>7.792074939061422e-06</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.0004462314245756716</v>
+        <v>1.672129110374954e-05</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.001110375393182039</v>
+        <v>8.167799023794942e-07</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0006524762138724327</v>
+        <v>4.259417437424418e-06</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.001392381731420755</v>
+        <v>2.909917384386063e-05</v>
       </c>
       <c r="EZ5" t="n">
-        <v>9.295935888076201e-05</v>
+        <v>1.01755324521946e-06</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0001065583492163569</v>
+        <v>8.815721230348572e-06</v>
       </c>
       <c r="FB5" t="n">
-        <v>3.087741060880944e-05</v>
+        <v>1.020259787765099e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.0008804842364042997</v>
+        <v>2.152607521566097e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0002337959158467129</v>
+        <v>1.742044150887523e-05</v>
       </c>
       <c r="FE5" t="n">
-        <v>6.817436951678246e-05</v>
+        <v>3.277871883256012e-06</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.001261235680431128</v>
+        <v>5.820073965878692e-06</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.001067964010871947</v>
+        <v>8.175437869795132e-06</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.0005184779292903841</v>
+        <v>1.438495746697299e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.001052982173860073</v>
+        <v>9.239910468750168e-06</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0003992002457380295</v>
+        <v>5.326182872522622e-05</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.000740324379876256</v>
+        <v>4.221976632834412e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0004404159844852984</v>
+        <v>2.041958396148402e-05</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.002006889320909977</v>
+        <v>2.541555659263395e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.0003499739104881883</v>
+        <v>5.027103907195851e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0001964334078365937</v>
+        <v>1.136860919359606e-05</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.001127734780311584</v>
+        <v>3.002203811774962e-06</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0008757765754126012</v>
+        <v>5.568120104726404e-05</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0002391883463133126</v>
+        <v>1.769712434906978e-05</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.001384080620482564</v>
+        <v>4.016072489321232e-05</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.002407148713245988</v>
+        <v>1.945867552421987e-05</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.001120618893764913</v>
+        <v>4.686065221903846e-05</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.001391270197927952</v>
+        <v>4.054322926094756e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.000654384377412498</v>
+        <v>1.490341855969746e-05</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.001728314906358719</v>
+        <v>3.440841828705743e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.002026540692895651</v>
+        <v>1.803206032491289e-06</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.003253044327721</v>
+        <v>1.774750671756919e-05</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.0004651652125176042</v>
+        <v>5.216045974520966e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.00126425817143172</v>
+        <v>2.380415025982074e-06</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.0004597072838805616</v>
+        <v>1.310374500462785e-05</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0002209017111454159</v>
+        <v>1.954855360963847e-05</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0009088971419259906</v>
+        <v>7.987217941263225e-06</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.003495741635560989</v>
+        <v>3.190949064446613e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0002162567398045212</v>
+        <v>1.260648605239112e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3849,571 +3849,571 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0006584337097592652</v>
+        <v>0.108266294002533</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0004399408935569227</v>
+        <v>0.6829075813293457</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002669051755219698</v>
+        <v>0.03999829292297363</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0005578160053119063</v>
+        <v>0.2729755640029907</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001849348307587206</v>
+        <v>0.03466885536909103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0001576482027303427</v>
+        <v>0.1625585407018661</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003749782335944474</v>
+        <v>0.03027908690273762</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000282857654383406</v>
+        <v>0.04594423249363899</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002424923004582524</v>
+        <v>0.02309314347803593</v>
       </c>
       <c r="J7" t="n">
-        <v>3.774393917410634e-05</v>
+        <v>0.1594868749380112</v>
       </c>
       <c r="K7" t="n">
-        <v>5.103473085910082e-05</v>
+        <v>0.4562092125415802</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002815750427544117</v>
+        <v>0.02502814121544361</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0004788810620084405</v>
+        <v>0.2494371086359024</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001056936220265925</v>
+        <v>0.1037666276097298</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0003169589035678655</v>
+        <v>0.240576446056366</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0004756433190777898</v>
+        <v>0.03322049230337143</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.000402560894144699</v>
+        <v>0.05559921264648438</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002615082776173949</v>
+        <v>0.03312055021524429</v>
       </c>
       <c r="S7" t="n">
-        <v>7.366389036178589e-05</v>
+        <v>0.01306252554059029</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0005640706513077021</v>
+        <v>0.07333929836750031</v>
       </c>
       <c r="U7" t="n">
-        <v>1.146811700891703e-05</v>
+        <v>0.01846401207149029</v>
       </c>
       <c r="V7" t="n">
-        <v>0.000684934260789305</v>
+        <v>0.09577526152133942</v>
       </c>
       <c r="W7" t="n">
-        <v>5.398308712756261e-05</v>
+        <v>0.0540880411863327</v>
       </c>
       <c r="X7" t="n">
-        <v>0.000279397121630609</v>
+        <v>0.05262987688183784</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0003328050952404737</v>
+        <v>0.07364099472761154</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0003937285509891808</v>
+        <v>0.06330788880586624</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0003063010517507792</v>
+        <v>0.06907882541418076</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0001627184392418712</v>
+        <v>0.01315329596400261</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.890760025475174e-05</v>
+        <v>0.0874456912279129</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.198347935220227e-05</v>
+        <v>0.01151209883391857</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.000186331890290603</v>
+        <v>0.04996777325868607</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.000165289340657182</v>
+        <v>0.01178001146763563</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.309915286488831e-05</v>
+        <v>0.01416186429560184</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0001785942586138844</v>
+        <v>0.0162336565554142</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0005109768244437873</v>
+        <v>0.008325414732098579</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0008255859720520675</v>
+        <v>0.04462466761469841</v>
       </c>
       <c r="AK7" t="n">
-        <v>6.391519855242223e-05</v>
+        <v>0.05590104311704636</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0006056957645341754</v>
+        <v>0.07171107083559036</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0002927228342741728</v>
+        <v>0.01588384807109833</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0002729754487518221</v>
+        <v>0.04411051422357559</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.396947274974082e-05</v>
+        <v>0.03672471642494202</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0007084971875883639</v>
+        <v>0.07380019873380661</v>
       </c>
       <c r="AQ7" t="n">
-        <v>5.634003900922835e-05</v>
+        <v>0.02088038623332977</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.000313123018713668</v>
+        <v>0.02169599384069443</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0001279048010474071</v>
+        <v>0.04077339172363281</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0006779354298487306</v>
+        <v>0.03391838818788528</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0006495587294921279</v>
+        <v>0.4529253542423248</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.001990698510780931</v>
+        <v>0.0004655830562114716</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0001741402957122773</v>
+        <v>0.05507683753967285</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0005114739760756493</v>
+        <v>0.08109802007675171</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.001657146378420293</v>
+        <v>0.01517643500119448</v>
       </c>
       <c r="AZ7" t="n">
-        <v>5.212316318647936e-05</v>
+        <v>0.003902183379977942</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0002246717049274594</v>
+        <v>0.06153940409421921</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0006128840614110231</v>
+        <v>0.07766421884298325</v>
       </c>
       <c r="BC7" t="n">
-        <v>5.395298285293393e-05</v>
+        <v>0.05977848172187805</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.841892662923783e-05</v>
+        <v>0.1178966462612152</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.0006155388546176255</v>
+        <v>0.1067434772849083</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0001198892859974876</v>
+        <v>0.0001234859228134155</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0002725674130488187</v>
+        <v>0.1660318821668625</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0004349118389654905</v>
+        <v>0.1020474061369896</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0002226991200586781</v>
+        <v>0.056782566010952</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0005069614853709936</v>
+        <v>0.08850483596324921</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0005442447145469487</v>
+        <v>0.02071904949843884</v>
       </c>
       <c r="BL7" t="n">
-        <v>6.301012035692111e-05</v>
+        <v>0.05740057677030563</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0001191339688375592</v>
+        <v>0.06353694200515747</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0008521921699866652</v>
+        <v>0.02632103860378265</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0003531014081090689</v>
+        <v>0.07860123366117477</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0004349115479271859</v>
+        <v>0.03461505100131035</v>
       </c>
       <c r="BQ7" t="n">
-        <v>7.415126674459316e-06</v>
+        <v>0.04192406311631203</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0001751426461851224</v>
+        <v>0.02526227571070194</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0005287777166813612</v>
+        <v>0.01764101162552834</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0004936476470902562</v>
+        <v>0.04837235808372498</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.0001143240078818053</v>
+        <v>0.03169335424900055</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.000456147245131433</v>
+        <v>0.2325417250394821</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0004234637308400124</v>
+        <v>0.0233695600181818</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0003767833113670349</v>
+        <v>0.06303614377975464</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0007578785298392177</v>
+        <v>0.002233951818197966</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0002399860240984708</v>
+        <v>0.1220659613609314</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0002171474770875648</v>
+        <v>0.04545758664608002</v>
       </c>
       <c r="CB7" t="n">
-        <v>9.849981870502234e-05</v>
+        <v>0.002139764837920666</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0009732621256262064</v>
+        <v>0.07182016968727112</v>
       </c>
       <c r="CD7" t="n">
-        <v>6.815532105974853e-05</v>
+        <v>0.0433635301887989</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0005206839414313436</v>
+        <v>0.1081921830773354</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0004980040830560029</v>
+        <v>0.05011529847979546</v>
       </c>
       <c r="CG7" t="n">
-        <v>5.276990123093128e-06</v>
+        <v>0.02215655148029327</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0003804801090154797</v>
+        <v>0.03623306751251221</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0001090885270969011</v>
+        <v>0.04971250519156456</v>
       </c>
       <c r="CJ7" t="n">
-        <v>4.629385875887237e-05</v>
+        <v>0.01834201253950596</v>
       </c>
       <c r="CK7" t="n">
-        <v>6.103672785684466e-05</v>
+        <v>0.006742009427398443</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.0003097037842962891</v>
+        <v>0.04397245496511459</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0001392981939716265</v>
+        <v>0.04612366855144501</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0009130751714110374</v>
+        <v>0.0089256651699543</v>
       </c>
       <c r="CO7" t="n">
-        <v>6.679458601865917e-05</v>
+        <v>0.04711798205971718</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0001684645394561812</v>
+        <v>0.1148508191108704</v>
       </c>
       <c r="CQ7" t="n">
-        <v>5.994406092213467e-05</v>
+        <v>0.0807371661067009</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0001148558731074445</v>
+        <v>0.06893425434827805</v>
       </c>
       <c r="CS7" t="n">
-        <v>3.085136995650828e-06</v>
+        <v>0.05348671227693558</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0002093452931148931</v>
+        <v>0.06495518237352371</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0006925669149495661</v>
+        <v>0.02166041359305382</v>
       </c>
       <c r="CV7" t="n">
-        <v>9.798445535125211e-05</v>
+        <v>0.03497403487563133</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.0004234265943523496</v>
+        <v>0.0893903374671936</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0004115122137591243</v>
+        <v>0.04821222648024559</v>
       </c>
       <c r="CY7" t="n">
-        <v>5.250432877801359e-05</v>
+        <v>0.05798253417015076</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0005609975196421146</v>
+        <v>0.03434175997972488</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0001818792370613664</v>
+        <v>0.05637377500534058</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.604310429887846e-05</v>
+        <v>0.02422190085053444</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.672666257945821e-05</v>
+        <v>0.02099743857979774</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0004208039317745715</v>
+        <v>0.02949032187461853</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.000349933747202158</v>
+        <v>0.04019360244274139</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.00106283905915916</v>
+        <v>0.08130438625812531</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.001236352138221264</v>
+        <v>0.008648927323520184</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.000399249023757875</v>
+        <v>0.1247633397579193</v>
       </c>
       <c r="DI7" t="n">
-        <v>1.22916553664254e-05</v>
+        <v>0.06534803658723831</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0001839166361605749</v>
+        <v>0.02559979259967804</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0008218665607273579</v>
+        <v>0.05907139182090759</v>
       </c>
       <c r="DL7" t="n">
-        <v>7.389947131741792e-05</v>
+        <v>0.002264704555273056</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0005563019658438861</v>
+        <v>0.005065028090029955</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0001348941150354221</v>
+        <v>0.07654804736375809</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0001820542238419876</v>
+        <v>0.032911516726017</v>
       </c>
       <c r="DP7" t="n">
-        <v>5.822924867970869e-05</v>
+        <v>0.04613739252090454</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0003882344753947109</v>
+        <v>0.01909743063151836</v>
       </c>
       <c r="DR7" t="n">
-        <v>3.897911665262654e-05</v>
+        <v>0.0310723539441824</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0004152639303356409</v>
+        <v>0.09830369800329208</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.0001660649431869388</v>
+        <v>0.007081108167767525</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0002368403947912157</v>
+        <v>0.01720951125025749</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0003533322014845908</v>
+        <v>0.05534880608320236</v>
       </c>
       <c r="DW7" t="n">
-        <v>7.986657874425873e-05</v>
+        <v>0.03668467327952385</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0001076941261999309</v>
+        <v>0.001459415070712566</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0003292151377536356</v>
+        <v>0.1192661300301552</v>
       </c>
       <c r="DZ7" t="n">
-        <v>6.919485167600214e-05</v>
+        <v>0.02074672654271126</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0002807251294143498</v>
+        <v>0.08246716111898422</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0002315715828444809</v>
+        <v>0.01055597700178623</v>
       </c>
       <c r="EC7" t="n">
-        <v>1.562060970172752e-05</v>
+        <v>0.005771026946604252</v>
       </c>
       <c r="ED7" t="n">
-        <v>9.802218119148165e-05</v>
+        <v>0.03340308740735054</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0001120034721679986</v>
+        <v>0.02466641366481781</v>
       </c>
       <c r="EF7" t="n">
-        <v>3.888997525791638e-06</v>
+        <v>0.001034971326589584</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.0005495746736414731</v>
+        <v>0.05126943066716194</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.0004298003332223743</v>
+        <v>0.006413434166461229</v>
       </c>
       <c r="EI7" t="n">
-        <v>3.587629544199444e-05</v>
+        <v>0.001392929814755917</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0002444457204546779</v>
+        <v>0.005063612479716539</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.0007877199677750468</v>
+        <v>0.03551601618528366</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.000243779766606167</v>
+        <v>0.02447226271033287</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0003838550765067339</v>
+        <v>0.01561714522540569</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.0002593464741948992</v>
+        <v>0.01553083397448063</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0002292142162332311</v>
+        <v>0.03468825668096542</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.0004740117874462157</v>
+        <v>0.07522207498550415</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0001280690485145897</v>
+        <v>0.004857000894844532</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0002118413831340149</v>
+        <v>0.06782400608062744</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0001581378746777773</v>
+        <v>0.07745096832513809</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.0002635618438944221</v>
+        <v>0.192469134926796</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0003023722674697638</v>
+        <v>0.05139131098985672</v>
       </c>
       <c r="EV7" t="n">
-        <v>4.432502828422002e-05</v>
+        <v>0.07052847743034363</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.0005118300323374569</v>
+        <v>0.00670052133500576</v>
       </c>
       <c r="EX7" t="n">
-        <v>1.790956775948871e-05</v>
+        <v>0.03125623241066933</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.0004395525029394776</v>
+        <v>0.08883625268936157</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0004328312934376299</v>
+        <v>0.02448924072086811</v>
       </c>
       <c r="FA7" t="n">
-        <v>6.525368371512741e-05</v>
+        <v>0.04004659503698349</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.0003243479877710342</v>
+        <v>0.03613606467843056</v>
       </c>
       <c r="FC7" t="n">
-        <v>4.60427108919248e-05</v>
+        <v>0.05661088228225708</v>
       </c>
       <c r="FD7" t="n">
-        <v>5.58957108296454e-05</v>
+        <v>0.03559290617704391</v>
       </c>
       <c r="FE7" t="n">
-        <v>7.512780575780198e-05</v>
+        <v>0.009298268705606461</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0005093506770208478</v>
+        <v>0.04038657993078232</v>
       </c>
       <c r="FG7" t="n">
-        <v>3.23761923937127e-06</v>
+        <v>0.01518197357654572</v>
       </c>
       <c r="FH7" t="n">
-        <v>4.579785309033468e-05</v>
+        <v>0.05041535943746567</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.0001719616702757776</v>
+        <v>0.03088845871388912</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.0003652698360383511</v>
+        <v>0.05808612331748009</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0004750168591272086</v>
+        <v>0.02329122461378574</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.0001643144059926271</v>
+        <v>0.008379824459552765</v>
       </c>
       <c r="FM7" t="n">
-        <v>8.110039925668389e-05</v>
+        <v>0.002169754356145859</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0003740798274520785</v>
+        <v>0.05221888050436974</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.000436089001595974</v>
+        <v>0.07078298926353455</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0001053650485118851</v>
+        <v>0.02867414243519306</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.0005940139526501298</v>
+        <v>0.01106442790478468</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0001995141647057608</v>
+        <v>0.005323079880326986</v>
       </c>
       <c r="FS7" t="n">
-        <v>6.102636689320207e-06</v>
+        <v>0.06364330649375916</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0003529488167259842</v>
+        <v>0.1924760043621063</v>
       </c>
       <c r="FU7" t="n">
-        <v>8.320530469063669e-05</v>
+        <v>0.04143210127949715</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0003364205185789615</v>
+        <v>0.01344587840139866</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0002448365848977119</v>
+        <v>0.004026294685900211</v>
       </c>
       <c r="FX7" t="n">
-        <v>8.464824350085109e-05</v>
+        <v>0.0463278517127037</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0001781299652066082</v>
+        <v>0.06768464297056198</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0001640171103645116</v>
+        <v>0.04107039049267769</v>
       </c>
       <c r="GA7" t="n">
-        <v>6.435045361286029e-05</v>
+        <v>0.04535111412405968</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0005212455871514976</v>
+        <v>0.01710203848779202</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.0002372509625274688</v>
+        <v>0.1001198962330818</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0005039956304244697</v>
+        <v>0.05011771246790886</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0001947548298630863</v>
+        <v>0.1947163343429565</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.000433161505497992</v>
+        <v>0.01581853814423084</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0002012499753618613</v>
+        <v>0.04654571041464806</v>
       </c>
     </row>
     <row r="8">
@@ -4987,1140 +4987,1140 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.08397351950407e-06</v>
+        <v>0.00184524292126298</v>
       </c>
       <c r="B9" t="n">
-        <v>8.608830830780789e-05</v>
+        <v>0.00896625779569149</v>
       </c>
       <c r="C9" t="n">
-        <v>4.572014950099401e-05</v>
+        <v>0.0005659818416461349</v>
       </c>
       <c r="D9" t="n">
-        <v>3.879686846630648e-05</v>
+        <v>0.002728902967646718</v>
       </c>
       <c r="E9" t="n">
-        <v>5.67202441743575e-05</v>
+        <v>0.002551334444433451</v>
       </c>
       <c r="F9" t="n">
-        <v>9.632929140934721e-05</v>
+        <v>0.001444214372895658</v>
       </c>
       <c r="G9" t="n">
-        <v>6.488731742138043e-05</v>
+        <v>0.0004533364262897521</v>
       </c>
       <c r="H9" t="n">
-        <v>3.447205926931929e-06</v>
+        <v>0.0007328447536565363</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000166146841365844</v>
+        <v>0.0004747906932607293</v>
       </c>
       <c r="J9" t="n">
-        <v>5.83920264034532e-05</v>
+        <v>0.00183688523247838</v>
       </c>
       <c r="K9" t="n">
-        <v>8.43849265947938e-05</v>
+        <v>0.007365865167230368</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001085014882846735</v>
+        <v>0.0008300119079649448</v>
       </c>
       <c r="M9" t="n">
-        <v>2.494638465577736e-05</v>
+        <v>0.002420640317723155</v>
       </c>
       <c r="N9" t="n">
-        <v>3.037159149243962e-05</v>
+        <v>0.002722430508583784</v>
       </c>
       <c r="O9" t="n">
-        <v>4.566712232190184e-05</v>
+        <v>0.001859318581409752</v>
       </c>
       <c r="P9" t="n">
-        <v>7.624130375916138e-05</v>
+        <v>0.001448256778530777</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.976995372388046e-05</v>
+        <v>0.002628772053867579</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0001325308112427592</v>
+        <v>0.0007069827406667173</v>
       </c>
       <c r="S9" t="n">
-        <v>3.084210766246542e-05</v>
+        <v>0.0004006645176559687</v>
       </c>
       <c r="T9" t="n">
-        <v>1.540639641461894e-05</v>
+        <v>0.001685163704678416</v>
       </c>
       <c r="U9" t="n">
-        <v>2.192944702983368e-05</v>
+        <v>0.0004136772186029702</v>
       </c>
       <c r="V9" t="n">
-        <v>4.776739660883322e-05</v>
+        <v>0.001246458617970347</v>
       </c>
       <c r="W9" t="n">
-        <v>6.174961163196713e-05</v>
+        <v>0.0005144156748428941</v>
       </c>
       <c r="X9" t="n">
-        <v>1.74227852767217e-06</v>
+        <v>0.001229327521286905</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.574325091904029e-05</v>
+        <v>0.000170751620316878</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.911844255024334e-06</v>
+        <v>0.000452018401119858</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.628847116488032e-05</v>
+        <v>0.0007573282928206027</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.522306774859317e-06</v>
+        <v>0.0002073992509394884</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.610879790969193e-05</v>
+        <v>0.0007711341604590416</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.666910748099326e-06</v>
+        <v>0.001787145854905248</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.291889854357578e-05</v>
+        <v>0.001768899150192738</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.797480581444688e-05</v>
+        <v>7.189811731223017e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.321617583016632e-05</v>
+        <v>0.0001211621565744281</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.768760820501484e-05</v>
+        <v>0.001662665978074074</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.581316948635504e-05</v>
+        <v>0.0002761766081675887</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.928879257524386e-05</v>
+        <v>0.001124974922277033</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.302463715546764e-05</v>
+        <v>0.001709240139462054</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.165088492096402e-05</v>
+        <v>0.001464559230953455</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.751715171849355e-05</v>
+        <v>0.0002722425269894302</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.396337655838579e-06</v>
+        <v>4.666839959099889e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.095209184626583e-07</v>
+        <v>0.0001548399159219116</v>
       </c>
       <c r="AP9" t="n">
-        <v>8.084881847025827e-05</v>
+        <v>0.0006403458537533879</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.057574172591558e-05</v>
+        <v>0.0005911082844249904</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.091787220910192e-05</v>
+        <v>0.0005244360654614866</v>
       </c>
       <c r="AS9" t="n">
-        <v>6.013824986439431e-06</v>
+        <v>0.000990769942291081</v>
       </c>
       <c r="AT9" t="n">
-        <v>6.23177329543978e-05</v>
+        <v>0.0007570552406832576</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.417285966454074e-05</v>
+        <v>0.006599448621273041</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0001223427825607359</v>
+        <v>0.0003570106346160173</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.627645335451234e-05</v>
+        <v>0.0004923645756207407</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.256026270217262e-05</v>
+        <v>0.001406378927640617</v>
       </c>
       <c r="AY9" t="n">
-        <v>8.956379315350205e-05</v>
+        <v>0.001546453102491796</v>
       </c>
       <c r="AZ9" t="n">
-        <v>4.998000804334879e-05</v>
+        <v>0.0007778802537359297</v>
       </c>
       <c r="BA9" t="n">
-        <v>4.947777051711455e-05</v>
+        <v>0.0005877536605112255</v>
       </c>
       <c r="BB9" t="n">
-        <v>8.643677574582398e-05</v>
+        <v>1.671659993007779e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.228598507121205e-05</v>
+        <v>0.0003288333537057042</v>
       </c>
       <c r="BD9" t="n">
-        <v>6.810090417275205e-05</v>
+        <v>0.002154665067791939</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.551094464957714e-05</v>
+        <v>0.0008105310844257474</v>
       </c>
       <c r="BF9" t="n">
-        <v>5.32818739884533e-06</v>
+        <v>0.0001409237302141264</v>
       </c>
       <c r="BG9" t="n">
-        <v>4.825848009204492e-05</v>
+        <v>0.0031379668507725</v>
       </c>
       <c r="BH9" t="n">
-        <v>5.401220550993457e-05</v>
+        <v>0.000331607589032501</v>
       </c>
       <c r="BI9" t="n">
-        <v>5.901088661630638e-05</v>
+        <v>0.0001951391896000132</v>
       </c>
       <c r="BJ9" t="n">
-        <v>9.32607872528024e-05</v>
+        <v>0.002016541315242648</v>
       </c>
       <c r="BK9" t="n">
-        <v>2.178555769205559e-05</v>
+        <v>0.0001346420176560059</v>
       </c>
       <c r="BL9" t="n">
-        <v>2.398745709797367e-05</v>
+        <v>0.001433126162737608</v>
       </c>
       <c r="BM9" t="n">
-        <v>4.308864663471468e-05</v>
+        <v>0.001397645915858448</v>
       </c>
       <c r="BN9" t="n">
-        <v>6.085224231355824e-05</v>
+        <v>0.0007155826315283775</v>
       </c>
       <c r="BO9" t="n">
-        <v>2.313259938091505e-05</v>
+        <v>0.001287781866267323</v>
       </c>
       <c r="BP9" t="n">
-        <v>3.416263552935561e-06</v>
+        <v>0.00229240651242435</v>
       </c>
       <c r="BQ9" t="n">
-        <v>9.062216122401878e-06</v>
+        <v>1.059079659171402e-05</v>
       </c>
       <c r="BR9" t="n">
-        <v>2.990115535794757e-05</v>
+        <v>0.0005922982236370444</v>
       </c>
       <c r="BS9" t="n">
-        <v>2.695960392884444e-05</v>
+        <v>0.0007426868542097509</v>
       </c>
       <c r="BT9" t="n">
-        <v>3.59623008989729e-05</v>
+        <v>0.0003913101390935481</v>
       </c>
       <c r="BU9" t="n">
-        <v>1.868852632469498e-05</v>
+        <v>0.000416350201703608</v>
       </c>
       <c r="BV9" t="n">
-        <v>4.285682734916918e-05</v>
+        <v>0.003187096212059259</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.072405780178087e-06</v>
+        <v>0.0007978384965099394</v>
       </c>
       <c r="BX9" t="n">
-        <v>7.682905561523512e-06</v>
+        <v>0.0003538144810590893</v>
       </c>
       <c r="BY9" t="n">
-        <v>7.674948574276641e-05</v>
+        <v>0.0003775790682993829</v>
       </c>
       <c r="BZ9" t="n">
-        <v>6.348774149955716e-06</v>
+        <v>0.001112868194468319</v>
       </c>
       <c r="CA9" t="n">
-        <v>1.931307633640245e-05</v>
+        <v>0.0002779387577902526</v>
       </c>
       <c r="CB9" t="n">
-        <v>4.778052971232682e-05</v>
+        <v>0.0005429416196420789</v>
       </c>
       <c r="CC9" t="n">
-        <v>7.727828051429242e-05</v>
+        <v>0.0002696324372664094</v>
       </c>
       <c r="CD9" t="n">
-        <v>1.1820113286376e-05</v>
+        <v>3.800357080763206e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>4.424079088494182e-05</v>
+        <v>0.001884016674011946</v>
       </c>
       <c r="CF9" t="n">
-        <v>5.667623099725461e-06</v>
+        <v>0.000327249348629266</v>
       </c>
       <c r="CG9" t="n">
-        <v>1.192520721815526e-05</v>
+        <v>0.0005585451726801693</v>
       </c>
       <c r="CH9" t="n">
-        <v>2.156308983103372e-05</v>
+        <v>0.0002447992446832359</v>
       </c>
       <c r="CI9" t="n">
-        <v>1.553500442241784e-05</v>
+        <v>0.0001865148660726845</v>
       </c>
       <c r="CJ9" t="n">
-        <v>4.893019195151282e-06</v>
+        <v>0.0006545245414599776</v>
       </c>
       <c r="CK9" t="n">
-        <v>7.495746103813872e-07</v>
+        <v>6.48415953037329e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.104346847569104e-05</v>
+        <v>0.0002022158732870594</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.976633575395681e-05</v>
+        <v>0.002222358947619796</v>
       </c>
       <c r="CN9" t="n">
-        <v>2.705094811972231e-05</v>
+        <v>0.001918503199703991</v>
       </c>
       <c r="CO9" t="n">
-        <v>3.712153556989506e-05</v>
+        <v>0.0004239307017996907</v>
       </c>
       <c r="CP9" t="n">
-        <v>2.668223169166595e-05</v>
+        <v>0.002038862090557814</v>
       </c>
       <c r="CQ9" t="n">
-        <v>4.3689418816939e-05</v>
+        <v>0.002489377977326512</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.422767400072189e-05</v>
+        <v>0.0008674563723616302</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.308269747823942e-05</v>
+        <v>0.0008017143118195236</v>
       </c>
       <c r="CT9" t="n">
-        <v>9.303350452682935e-06</v>
+        <v>0.0004484466044232249</v>
       </c>
       <c r="CU9" t="n">
-        <v>4.984743281966075e-05</v>
+        <v>0.0004617533995769918</v>
       </c>
       <c r="CV9" t="n">
-        <v>1.967726166185457e-05</v>
+        <v>6.784126162528992e-05</v>
       </c>
       <c r="CW9" t="n">
-        <v>3.574740549083799e-05</v>
+        <v>0.001613217988051474</v>
       </c>
       <c r="CX9" t="n">
-        <v>4.37366179539822e-06</v>
+        <v>0.0003312113985884935</v>
       </c>
       <c r="CY9" t="n">
-        <v>1.021810749080032e-05</v>
+        <v>0.0009411877254024148</v>
       </c>
       <c r="CZ9" t="n">
-        <v>3.091035614488646e-05</v>
+        <v>0.0003143256180919707</v>
       </c>
       <c r="DA9" t="n">
-        <v>2.722284261835739e-05</v>
+        <v>0.0003856563125737011</v>
       </c>
       <c r="DB9" t="n">
-        <v>3.010297405126039e-06</v>
+        <v>0.0008160956203937531</v>
       </c>
       <c r="DC9" t="n">
-        <v>2.212995696027065e-06</v>
+        <v>0.0003203646920155734</v>
       </c>
       <c r="DD9" t="n">
-        <v>2.390661211393308e-05</v>
+        <v>0.000200435591978021</v>
       </c>
       <c r="DE9" t="n">
-        <v>1.488162342866417e-05</v>
+        <v>0.0003815751988440752</v>
       </c>
       <c r="DF9" t="n">
-        <v>5.718988177250139e-05</v>
+        <v>0.002122409641742706</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.0001213068899232894</v>
+        <v>0.0003890867810696363</v>
       </c>
       <c r="DH9" t="n">
-        <v>1.834296926972456e-05</v>
+        <v>0.001512325135990977</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.0001178869351861067</v>
+        <v>0.002506603021174669</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.0001128921794588678</v>
+        <v>0.0006808565813116729</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.0001029472550726496</v>
+        <v>0.002271532546728849</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.856334711192176e-05</v>
+        <v>0.00047032639849931</v>
       </c>
       <c r="DM9" t="n">
-        <v>2.198385664087255e-05</v>
+        <v>0.0009019030840136111</v>
       </c>
       <c r="DN9" t="n">
-        <v>2.476627014402766e-05</v>
+        <v>0.0004425676306709647</v>
       </c>
       <c r="DO9" t="n">
-        <v>2.833902181009762e-05</v>
+        <v>0.001200926606543362</v>
       </c>
       <c r="DP9" t="n">
-        <v>5.740040796808898e-05</v>
+        <v>0.001006978331133723</v>
       </c>
       <c r="DQ9" t="n">
-        <v>7.220533007057384e-07</v>
+        <v>0.0006992467679083347</v>
       </c>
       <c r="DR9" t="n">
-        <v>3.455276964814402e-05</v>
+        <v>0.0003504329069983214</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.660262114455691e-06</v>
+        <v>2.330722782062367e-05</v>
       </c>
       <c r="DT9" t="n">
-        <v>2.371263872191776e-05</v>
+        <v>0.001185171422548592</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.490158971748315e-06</v>
+        <v>3.039314469788224e-05</v>
       </c>
       <c r="DV9" t="n">
-        <v>2.023675551754422e-05</v>
+        <v>0.0006439801072701812</v>
       </c>
       <c r="DW9" t="n">
-        <v>2.301250788150355e-05</v>
+        <v>0.0001395202416460961</v>
       </c>
       <c r="DX9" t="n">
-        <v>2.510109425202245e-06</v>
+        <v>0.0004348658549133688</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.65108838245942e-06</v>
+        <v>0.0006104203639551997</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.222389619215392e-05</v>
+        <v>0.0006441051955334842</v>
       </c>
       <c r="EA9" t="n">
-        <v>4.269983401172794e-05</v>
+        <v>0.0008960552513599396</v>
       </c>
       <c r="EB9" t="n">
-        <v>2.349678834434599e-05</v>
+        <v>0.000296986021567136</v>
       </c>
       <c r="EC9" t="n">
-        <v>2.725191006902605e-05</v>
+        <v>0.0001313509128522128</v>
       </c>
       <c r="ED9" t="n">
-        <v>6.866948751849122e-06</v>
+        <v>0.001326639205217361</v>
       </c>
       <c r="EE9" t="n">
-        <v>1.112846621253993e-05</v>
+        <v>0.0002312526776222512</v>
       </c>
       <c r="EF9" t="n">
-        <v>1.024068387778243e-05</v>
+        <v>0.0005740144988521934</v>
       </c>
       <c r="EG9" t="n">
-        <v>7.738057320239022e-05</v>
+        <v>0.0007871569250710309</v>
       </c>
       <c r="EH9" t="n">
-        <v>1.330203213001369e-05</v>
+        <v>6.249453872442245e-05</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.966653144336306e-06</v>
+        <v>0.0001804179046303034</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.494516800448764e-05</v>
+        <v>0.0002962687867693603</v>
       </c>
       <c r="EK9" t="n">
-        <v>3.326391743030399e-05</v>
+        <v>0.0002935934462584555</v>
       </c>
       <c r="EL9" t="n">
-        <v>1.232210888701957e-05</v>
+        <v>0.0007370791863650084</v>
       </c>
       <c r="EM9" t="n">
-        <v>4.143207661400083e-06</v>
+        <v>0.0002983923477586359</v>
       </c>
       <c r="EN9" t="n">
-        <v>2.796083026623819e-05</v>
+        <v>0.0003332191554363817</v>
       </c>
       <c r="EO9" t="n">
-        <v>2.950335510831792e-05</v>
+        <v>0.0009559960453771055</v>
       </c>
       <c r="EP9" t="n">
-        <v>6.662745727226138e-05</v>
+        <v>0.000536539766471833</v>
       </c>
       <c r="EQ9" t="n">
-        <v>1.120268916565692e-05</v>
+        <v>0.0004771348612848669</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.580268326506484e-05</v>
+        <v>3.865323378704488e-05</v>
       </c>
       <c r="ES9" t="n">
-        <v>2.882913395296782e-05</v>
+        <v>0.0005227879155427217</v>
       </c>
       <c r="ET9" t="n">
-        <v>1.649311889195815e-05</v>
+        <v>0.0008134166710078716</v>
       </c>
       <c r="EU9" t="n">
-        <v>2.258186759718228e-05</v>
+        <v>0.0009866401087492704</v>
       </c>
       <c r="EV9" t="n">
-        <v>1.658031942497473e-05</v>
+        <v>0.001306610298343003</v>
       </c>
       <c r="EW9" t="n">
-        <v>2.333601696591359e-05</v>
+        <v>3.195536555722356e-05</v>
       </c>
       <c r="EX9" t="n">
-        <v>1.903240809042472e-05</v>
+        <v>2.272634083055891e-05</v>
       </c>
       <c r="EY9" t="n">
-        <v>3.194880628143437e-05</v>
+        <v>0.001411139615811408</v>
       </c>
       <c r="EZ9" t="n">
-        <v>6.206340913195163e-06</v>
+        <v>6.994975410634652e-05</v>
       </c>
       <c r="FA9" t="n">
-        <v>2.021357613557484e-05</v>
+        <v>0.0004579143133014441</v>
       </c>
       <c r="FB9" t="n">
-        <v>2.540207424317487e-05</v>
+        <v>0.0002611886884551495</v>
       </c>
       <c r="FC9" t="n">
-        <v>2.723419129324611e-05</v>
+        <v>0.0004416737356223166</v>
       </c>
       <c r="FD9" t="n">
-        <v>5.092844730825163e-06</v>
+        <v>0.0006745270802639425</v>
       </c>
       <c r="FE9" t="n">
-        <v>3.5318603295309e-06</v>
+        <v>6.651593139395118e-05</v>
       </c>
       <c r="FF9" t="n">
-        <v>2.620215673232451e-05</v>
+        <v>0.0003975335275754333</v>
       </c>
       <c r="FG9" t="n">
-        <v>3.377772372914478e-05</v>
+        <v>0.0008704114588908851</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.609894570719916e-05</v>
+        <v>0.001274081645533442</v>
       </c>
       <c r="FI9" t="n">
-        <v>2.515774576750118e-05</v>
+        <v>0.001013317261822522</v>
       </c>
       <c r="FJ9" t="n">
-        <v>2.115042479999829e-05</v>
+        <v>0.0005569786299020052</v>
       </c>
       <c r="FK9" t="n">
-        <v>8.942040949477814e-06</v>
+        <v>0.0001916865003295243</v>
       </c>
       <c r="FL9" t="n">
-        <v>3.28703063132707e-05</v>
+        <v>0.0002280140615766868</v>
       </c>
       <c r="FM9" t="n">
-        <v>3.546952939359471e-06</v>
+        <v>0.0004976560012437403</v>
       </c>
       <c r="FN9" t="n">
-        <v>2.482751006027684e-05</v>
+        <v>0.0002236366126453504</v>
       </c>
       <c r="FO9" t="n">
-        <v>7.970065780682489e-06</v>
+        <v>0.0002762411895673722</v>
       </c>
       <c r="FP9" t="n">
-        <v>8.764471203903668e-06</v>
+        <v>0.001664888812229037</v>
       </c>
       <c r="FQ9" t="n">
-        <v>3.243352330173366e-05</v>
+        <v>0.0008814519387669861</v>
       </c>
       <c r="FR9" t="n">
-        <v>5.612346853922645e-07</v>
+        <v>0.0009028523927554488</v>
       </c>
       <c r="FS9" t="n">
-        <v>8.743497164687142e-05</v>
+        <v>0.0004494255699682981</v>
       </c>
       <c r="FT9" t="n">
-        <v>2.151722765120212e-05</v>
+        <v>0.003052204847335815</v>
       </c>
       <c r="FU9" t="n">
-        <v>5.835540378029691e-06</v>
+        <v>0.0008236292633228004</v>
       </c>
       <c r="FV9" t="n">
-        <v>4.270488716429099e-06</v>
+        <v>3.927297075279057e-05</v>
       </c>
       <c r="FW9" t="n">
-        <v>1.687196345301345e-05</v>
+        <v>0.0003424606402404606</v>
       </c>
       <c r="FX9" t="n">
-        <v>6.188382394611835e-05</v>
+        <v>0.0006175702437758446</v>
       </c>
       <c r="FY9" t="n">
-        <v>1.69380637089489e-05</v>
+        <v>0.0007463368237949908</v>
       </c>
       <c r="FZ9" t="n">
-        <v>7.013299909885973e-05</v>
+        <v>0.001286855898797512</v>
       </c>
       <c r="GA9" t="n">
-        <v>3.048258076887578e-05</v>
+        <v>0.0007013785070739686</v>
       </c>
       <c r="GB9" t="n">
-        <v>1.689214695943519e-05</v>
+        <v>0.001408546813763678</v>
       </c>
       <c r="GC9" t="n">
-        <v>2.242236860183766e-06</v>
+        <v>0.0003777831443585455</v>
       </c>
       <c r="GD9" t="n">
-        <v>2.12319955608109e-05</v>
+        <v>0.001225161366164684</v>
       </c>
       <c r="GE9" t="n">
-        <v>1.269215863430873e-05</v>
+        <v>0.001543051563203335</v>
       </c>
       <c r="GF9" t="n">
-        <v>4.711332803708501e-05</v>
+        <v>0.001496665878221393</v>
       </c>
       <c r="GG9" t="n">
-        <v>1.692750083748251e-05</v>
+        <v>0.0006322582485154271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.316197080494021e-06</v>
+        <v>0.0004794306587427855</v>
       </c>
       <c r="B10" t="n">
-        <v>9.792493074201047e-07</v>
+        <v>0.01330834068357944</v>
       </c>
       <c r="C10" t="n">
-        <v>1.342451923846966e-05</v>
+        <v>0.001411022618412971</v>
       </c>
       <c r="D10" t="n">
-        <v>3.454827719906461e-06</v>
+        <v>0.006576741114258766</v>
       </c>
       <c r="E10" t="n">
-        <v>6.600166216230718e-06</v>
+        <v>0.002220646245405078</v>
       </c>
       <c r="F10" t="n">
-        <v>5.36734034994879e-07</v>
+        <v>0.001428994466550648</v>
       </c>
       <c r="G10" t="n">
-        <v>2.259760776723851e-06</v>
+        <v>0.0009758439846336842</v>
       </c>
       <c r="H10" t="n">
-        <v>2.261019744764781e-06</v>
+        <v>0.001020357245579362</v>
       </c>
       <c r="I10" t="n">
-        <v>1.118648651754484e-05</v>
+        <v>0.001007577870041132</v>
       </c>
       <c r="J10" t="n">
-        <v>1.127728864958044e-06</v>
+        <v>0.001532677910290658</v>
       </c>
       <c r="K10" t="n">
-        <v>2.216677103206166e-06</v>
+        <v>0.009643423371016979</v>
       </c>
       <c r="L10" t="n">
-        <v>1.428252107871231e-05</v>
+        <v>0.0001639450347283855</v>
       </c>
       <c r="M10" t="n">
-        <v>1.273459361073037e-06</v>
+        <v>0.006182386539876461</v>
       </c>
       <c r="N10" t="n">
-        <v>3.052026386285434e-06</v>
+        <v>0.003874585963785648</v>
       </c>
       <c r="O10" t="n">
-        <v>7.752088322376949e-07</v>
+        <v>0.002672539791092277</v>
       </c>
       <c r="P10" t="n">
-        <v>2.832053951351554e-06</v>
+        <v>0.0007666717283427715</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.976707375841215e-06</v>
+        <v>0.001287612598389387</v>
       </c>
       <c r="R10" t="n">
-        <v>1.235334366356255e-05</v>
+        <v>0.0002365937689319253</v>
       </c>
       <c r="S10" t="n">
-        <v>5.991115585857187e-07</v>
+        <v>0.0005487995804287493</v>
       </c>
       <c r="T10" t="n">
-        <v>4.191882453596918e-06</v>
+        <v>0.001994959078729153</v>
       </c>
       <c r="U10" t="n">
-        <v>4.207668666822428e-07</v>
+        <v>0.0001204137151944451</v>
       </c>
       <c r="V10" t="n">
-        <v>2.842700951077859e-06</v>
+        <v>0.0008402570383623242</v>
       </c>
       <c r="W10" t="n">
-        <v>1.615637302165851e-06</v>
+        <v>0.0003933372208848596</v>
       </c>
       <c r="X10" t="n">
-        <v>4.001537590170301e-08</v>
+        <v>0.001261455588974059</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.412892616936006e-07</v>
+        <v>0.001359288347885013</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.836131216099602e-06</v>
+        <v>0.0007549145957455039</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.689778514446516e-06</v>
+        <v>0.0003828477347269654</v>
       </c>
       <c r="AB10" t="n">
-        <v>5.178313813303248e-07</v>
+        <v>0.00163357425481081</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.025310431643447e-07</v>
+        <v>0.002027652226388454</v>
       </c>
       <c r="AD10" t="n">
-        <v>4.479886399622046e-07</v>
+        <v>0.0008800950017757714</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.371519601889304e-06</v>
+        <v>0.0001844479411374778</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.025470851345744e-06</v>
+        <v>0.0002682373160496354</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.797065124264918e-06</v>
+        <v>0.0004851327685173601</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.169806627236539e-08</v>
+        <v>0.0005882203113287687</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.543982302289805e-06</v>
+        <v>0.0003166587557643652</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4.662023911805591e-06</v>
+        <v>0.0002693950664252043</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.699836727515503e-07</v>
+        <v>0.001097478670999408</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.862098426703596e-06</v>
+        <v>0.001332619809545577</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.369452093058499e-06</v>
+        <v>0.0004131060559302568</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.607810645509744e-06</v>
+        <v>0.0005254875868558884</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.444364544222481e-07</v>
+        <v>0.001296440022997558</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.535106088747852e-06</v>
+        <v>0.001342775532975793</v>
       </c>
       <c r="AQ10" t="n">
-        <v>5.223743073656806e-07</v>
+        <v>0.0005842496175318956</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.263521653527278e-06</v>
+        <v>0.0007508108392357826</v>
       </c>
       <c r="AS10" t="n">
-        <v>8.002776326065941e-07</v>
+        <v>0.0002209385274909437</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.464566478010966e-06</v>
+        <v>0.0009498700965195894</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.696158619779453e-06</v>
+        <v>0.01022919081151485</v>
       </c>
       <c r="AV10" t="n">
-        <v>8.761587196204346e-06</v>
+        <v>0.0003070685197599232</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.598311314410239e-06</v>
+        <v>0.001551054883748293</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.920423528645188e-06</v>
+        <v>0.0007096054032444954</v>
       </c>
       <c r="AY10" t="n">
-        <v>7.160872428357834e-06</v>
+        <v>0.0003247779968660325</v>
       </c>
       <c r="AZ10" t="n">
-        <v>4.66428332401847e-07</v>
+        <v>0.0005130760837346315</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.304051920669735e-06</v>
+        <v>0.0001983540860237554</v>
       </c>
       <c r="BB10" t="n">
-        <v>2.812615548464237e-06</v>
+        <v>0.0004445673548616469</v>
       </c>
       <c r="BC10" t="n">
-        <v>5.679606829289696e-07</v>
+        <v>0.0007884851656854153</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.286435235670069e-06</v>
+        <v>0.003064665710553527</v>
       </c>
       <c r="BE10" t="n">
-        <v>3.957749413530109e-06</v>
+        <v>0.002626841655001044</v>
       </c>
       <c r="BF10" t="n">
-        <v>5.593815899374022e-07</v>
+        <v>0.0007888429099693894</v>
       </c>
       <c r="BG10" t="n">
-        <v>7.783241926517803e-07</v>
+        <v>0.002972551388666034</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.021174623223487e-06</v>
+        <v>0.001925182295963168</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.292043634748552e-06</v>
+        <v>0.001457614125683904</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1.138258198807307e-06</v>
+        <v>0.0008766507962718606</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.538028866183595e-06</v>
+        <v>1.584170968271792e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.016095296790809e-07</v>
+        <v>0.002233346924185753</v>
       </c>
       <c r="BM10" t="n">
-        <v>4.699378735040227e-07</v>
+        <v>0.002607941161841154</v>
       </c>
       <c r="BN10" t="n">
-        <v>3.466835096332943e-06</v>
+        <v>0.001248219981789589</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.407683612342225e-06</v>
+        <v>9.550330287311226e-05</v>
       </c>
       <c r="BP10" t="n">
-        <v>2.156266191377654e-06</v>
+        <v>0.002234750427305698</v>
       </c>
       <c r="BQ10" t="n">
-        <v>5.923185995015956e-07</v>
+        <v>0.001015006680972874</v>
       </c>
       <c r="BR10" t="n">
-        <v>4.628683427654323e-07</v>
+        <v>0.0003300649987068027</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.284322247054661e-06</v>
+        <v>0.0006578397005796432</v>
       </c>
       <c r="BT10" t="n">
-        <v>2.822656142598134e-06</v>
+        <v>0.0003753188066184521</v>
       </c>
       <c r="BU10" t="n">
-        <v>8.474349897369393e-07</v>
+        <v>0.0008688199450261891</v>
       </c>
       <c r="BV10" t="n">
-        <v>7.626584306308359e-07</v>
+        <v>0.005005756393074989</v>
       </c>
       <c r="BW10" t="n">
-        <v>3.281886165495962e-06</v>
+        <v>0.001234850496985018</v>
       </c>
       <c r="BX10" t="n">
-        <v>2.028758672167896e-06</v>
+        <v>0.0009650713764131069</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.644470214363537e-06</v>
+        <v>0.0003319256647955626</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.033895614455105e-06</v>
+        <v>0.002251037629321218</v>
       </c>
       <c r="CA10" t="n">
-        <v>1.320741716881457e-06</v>
+        <v>0.0005155704566277564</v>
       </c>
       <c r="CB10" t="n">
-        <v>3.451521024544491e-07</v>
+        <v>0.0006170074921101332</v>
       </c>
       <c r="CC10" t="n">
-        <v>5.01363729199511e-06</v>
+        <v>8.91252129804343e-05</v>
       </c>
       <c r="CD10" t="n">
-        <v>6.456851906477823e-07</v>
+        <v>0.0005033980123698711</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.862999624790973e-06</v>
+        <v>0.002181990072131157</v>
       </c>
       <c r="CF10" t="n">
-        <v>2.569683147157775e-06</v>
+        <v>0.0006299341330304742</v>
       </c>
       <c r="CG10" t="n">
-        <v>3.700870365719311e-07</v>
+        <v>0.0005236188299022615</v>
       </c>
       <c r="CH10" t="n">
-        <v>1.527717131466488e-06</v>
+        <v>0.0003934308770112693</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.136918172051082e-06</v>
+        <v>0.0005218638107180595</v>
       </c>
       <c r="CJ10" t="n">
-        <v>9.466874217878285e-08</v>
+        <v>0.0004099975049030036</v>
       </c>
       <c r="CK10" t="n">
-        <v>2.179203733021495e-07</v>
+        <v>0.0001356721331831068</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.438340291315399e-06</v>
+        <v>0.0002401773963356391</v>
       </c>
       <c r="CM10" t="n">
-        <v>9.407244760950562e-07</v>
+        <v>0.002587442751973867</v>
       </c>
       <c r="CN10" t="n">
-        <v>4.700805220636539e-06</v>
+        <v>0.002124069025740027</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.295118977395759e-06</v>
+        <v>0.0003525232605170459</v>
       </c>
       <c r="CP10" t="n">
-        <v>1.172905683688441e-07</v>
+        <v>0.00272090919315815</v>
       </c>
       <c r="CQ10" t="n">
-        <v>8.042039780775667e-07</v>
+        <v>0.002277882071211934</v>
       </c>
       <c r="CR10" t="n">
-        <v>3.88534090234316e-07</v>
+        <v>0.001114569487981498</v>
       </c>
       <c r="CS10" t="n">
-        <v>7.366475074377377e-08</v>
+        <v>0.001010827720165253</v>
       </c>
       <c r="CT10" t="n">
-        <v>3.932379399884667e-07</v>
+        <v>0.002379766199737787</v>
       </c>
       <c r="CU10" t="n">
-        <v>3.006686483786325e-06</v>
+        <v>0.0001550749293528497</v>
       </c>
       <c r="CV10" t="n">
-        <v>7.876831205066992e-07</v>
+        <v>0.0004408214008435607</v>
       </c>
       <c r="CW10" t="n">
-        <v>1.418006036146835e-06</v>
+        <v>0.001752830110490322</v>
       </c>
       <c r="CX10" t="n">
-        <v>2.116159294018871e-06</v>
+        <v>0.0008242731564678252</v>
       </c>
       <c r="CY10" t="n">
-        <v>5.743460178564419e-07</v>
+        <v>0.001113079721108079</v>
       </c>
       <c r="CZ10" t="n">
-        <v>2.646856501087314e-06</v>
+        <v>0.0004609037423506379</v>
       </c>
       <c r="DA10" t="n">
-        <v>1.279980551771587e-06</v>
+        <v>0.0004572851466946304</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.025516382924252e-07</v>
+        <v>0.0003176434547640383</v>
       </c>
       <c r="DC10" t="n">
-        <v>2.728692720666004e-07</v>
+        <v>0.0001697397674433887</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.890736371024104e-06</v>
+        <v>0.0001418769534211606</v>
       </c>
       <c r="DE10" t="n">
-        <v>1.513658389740158e-06</v>
+        <v>0.001221846439875662</v>
       </c>
       <c r="DF10" t="n">
-        <v>3.460039351921296e-06</v>
+        <v>0.001133616780862212</v>
       </c>
       <c r="DG10" t="n">
-        <v>3.15249872073764e-06</v>
+        <v>0.001008065533824265</v>
       </c>
       <c r="DH10" t="n">
-        <v>1.837192598941328e-06</v>
+        <v>0.002697514602914453</v>
       </c>
       <c r="DI10" t="n">
-        <v>7.179473868745845e-07</v>
+        <v>0.0003551484260242432</v>
       </c>
       <c r="DJ10" t="n">
-        <v>1.456928089282883e-06</v>
+        <v>0.0003855769464280456</v>
       </c>
       <c r="DK10" t="n">
-        <v>3.198913418600569e-06</v>
+        <v>0.0009185680537484586</v>
       </c>
       <c r="DL10" t="n">
-        <v>6.201419751050707e-07</v>
+        <v>0.0005944286822341383</v>
       </c>
       <c r="DM10" t="n">
-        <v>2.131973815266974e-06</v>
+        <v>0.0004985821433365345</v>
       </c>
       <c r="DN10" t="n">
-        <v>6.425613037208677e-07</v>
+        <v>0.0009217955521307886</v>
       </c>
       <c r="DO10" t="n">
-        <v>1.030717612593435e-06</v>
+        <v>0.000450220366474241</v>
       </c>
       <c r="DP10" t="n">
-        <v>1.146070985669212e-06</v>
+        <v>0.001172541291452944</v>
       </c>
       <c r="DQ10" t="n">
-        <v>1.313022494286997e-06</v>
+        <v>0.0006583422655239701</v>
       </c>
       <c r="DR10" t="n">
-        <v>2.346161664945612e-07</v>
+        <v>0.0007182300905697048</v>
       </c>
       <c r="DS10" t="n">
-        <v>1.056339442584431e-06</v>
+        <v>0.001098769949749112</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.646118334974744e-07</v>
+        <v>0.0004904726520180702</v>
       </c>
       <c r="DU10" t="n">
-        <v>6.810024615333532e-07</v>
+        <v>0.0003139304171781987</v>
       </c>
       <c r="DV10" t="n">
-        <v>2.726393859120435e-06</v>
+        <v>0.0002798899658955634</v>
       </c>
       <c r="DW10" t="n">
-        <v>4.286566763767041e-07</v>
+        <v>0.0001759914885042235</v>
       </c>
       <c r="DX10" t="n">
-        <v>4.02912348818063e-07</v>
+        <v>0.0005177300772629678</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.4787007103223e-06</v>
+        <v>0.0006556288572028279</v>
       </c>
       <c r="DZ10" t="n">
-        <v>3.980145493187592e-07</v>
+        <v>0.000567612936720252</v>
       </c>
       <c r="EA10" t="n">
-        <v>1.439440779904544e-06</v>
+        <v>0.001723900088109076</v>
       </c>
       <c r="EB10" t="n">
-        <v>1.372396582155488e-06</v>
+        <v>0.0007380580063909292</v>
       </c>
       <c r="EC10" t="n">
-        <v>3.97000832208505e-07</v>
+        <v>0.0002784720854833722</v>
       </c>
       <c r="ED10" t="n">
-        <v>7.669131036891486e-07</v>
+        <v>0.0002798294590320438</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.162897774520388e-06</v>
+        <v>0.0001032974032568745</v>
       </c>
       <c r="EF10" t="n">
-        <v>8.002857612154912e-07</v>
+        <v>0.0003613283624872565</v>
       </c>
       <c r="EG10" t="n">
-        <v>1.776258272911946e-06</v>
+        <v>0.001672253827564418</v>
       </c>
       <c r="EH10" t="n">
-        <v>1.969739514606772e-06</v>
+        <v>0.000178715301444754</v>
       </c>
       <c r="EI10" t="n">
-        <v>2.521920805520494e-07</v>
+        <v>0.001282047713175416</v>
       </c>
       <c r="EJ10" t="n">
-        <v>6.901121878399863e-07</v>
+        <v>0.0007013644208200276</v>
       </c>
       <c r="EK10" t="n">
-        <v>2.257516371173551e-06</v>
+        <v>0.000432588771218434</v>
       </c>
       <c r="EL10" t="n">
-        <v>1.341494225925999e-06</v>
+        <v>0.0004551797755993903</v>
       </c>
       <c r="EM10" t="n">
-        <v>2.042822188741411e-06</v>
+        <v>0.0002710317494347692</v>
       </c>
       <c r="EN10" t="n">
-        <v>7.677029429942195e-07</v>
+        <v>8.419639198109508e-05</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.415852807440388e-06</v>
+        <v>0.0008465524297207594</v>
       </c>
       <c r="EP10" t="n">
-        <v>1.308193645854772e-06</v>
+        <v>0.001169335446320474</v>
       </c>
       <c r="EQ10" t="n">
-        <v>1.468974346607865e-07</v>
+        <v>0.0005399510264396667</v>
       </c>
       <c r="ER10" t="n">
-        <v>1.244965915248031e-06</v>
+        <v>0.001104254624806345</v>
       </c>
       <c r="ES10" t="n">
-        <v>4.828384589927737e-07</v>
+        <v>0.0002220741007477045</v>
       </c>
       <c r="ET10" t="n">
-        <v>6.936873546692368e-07</v>
+        <v>0.002188240177929401</v>
       </c>
       <c r="EU10" t="n">
-        <v>4.149113692619721e-07</v>
+        <v>0.0008468362502753735</v>
       </c>
       <c r="EV10" t="n">
-        <v>5.819516957217274e-08</v>
+        <v>0.0009528417722322047</v>
       </c>
       <c r="EW10" t="n">
-        <v>3.006252882187255e-06</v>
+        <v>0.0003598550392780453</v>
       </c>
       <c r="EX10" t="n">
-        <v>3.170535478602687e-07</v>
+        <v>0.000125919163110666</v>
       </c>
       <c r="EY10" t="n">
-        <v>1.612798541827942e-06</v>
+        <v>0.001761242398060858</v>
       </c>
       <c r="EZ10" t="n">
-        <v>2.376035354245687e-06</v>
+        <v>0.0003826872853096575</v>
       </c>
       <c r="FA10" t="n">
-        <v>2.005190538056922e-07</v>
+        <v>0.0007515551405958831</v>
       </c>
       <c r="FB10" t="n">
-        <v>1.296150571761245e-06</v>
+        <v>7.661150448257104e-05</v>
       </c>
       <c r="FC10" t="n">
-        <v>7.806473831806215e-07</v>
+        <v>0.000728511658962816</v>
       </c>
       <c r="FD10" t="n">
-        <v>3.646634922915837e-07</v>
+        <v>0.0004845960938837379</v>
       </c>
       <c r="FE10" t="n">
-        <v>5.747933755628765e-07</v>
+        <v>5.951635102974251e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>2.475299652360263e-06</v>
+        <v>0.0002424429985694587</v>
       </c>
       <c r="FG10" t="n">
-        <v>5.339123276826285e-08</v>
+        <v>0.0003762630512937903</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.062940668816736e-06</v>
+        <v>0.0004190770850982517</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.337776438958826e-06</v>
+        <v>0.0002248381933895871</v>
       </c>
       <c r="FJ10" t="n">
-        <v>2.539958359193406e-07</v>
+        <v>0.00144591520074755</v>
       </c>
       <c r="FK10" t="n">
-        <v>2.192257397837238e-06</v>
+        <v>0.001242225407622755</v>
       </c>
       <c r="FL10" t="n">
-        <v>3.150696556986077e-07</v>
+        <v>0.0008149106870405376</v>
       </c>
       <c r="FM10" t="n">
-        <v>6.231555289559765e-07</v>
+        <v>0.0005075590452179313</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.28407953070564e-06</v>
+        <v>0.0002582828747108579</v>
       </c>
       <c r="FO10" t="n">
-        <v>2.335881163162412e-06</v>
+        <v>0.0007075658650137484</v>
       </c>
       <c r="FP10" t="n">
-        <v>3.321247845633479e-07</v>
+        <v>0.0008093536598607898</v>
       </c>
       <c r="FQ10" t="n">
-        <v>3.577450797820347e-06</v>
+        <v>0.0008364191162399948</v>
       </c>
       <c r="FR10" t="n">
-        <v>1.362960688311432e-06</v>
+        <v>0.0001293075329158455</v>
       </c>
       <c r="FS10" t="n">
-        <v>7.572967888336279e-07</v>
+        <v>0.001144153182394803</v>
       </c>
       <c r="FT10" t="n">
-        <v>1.570838321640622e-06</v>
+        <v>6.159502663649619e-05</v>
       </c>
       <c r="FU10" t="n">
-        <v>4.356767817625951e-07</v>
+        <v>7.2130515036406e-06</v>
       </c>
       <c r="FV10" t="n">
-        <v>1.171149506262736e-06</v>
+        <v>0.0003876295813824981</v>
       </c>
       <c r="FW10" t="n">
-        <v>1.102065766644955e-06</v>
+        <v>0.0003472212702035904</v>
       </c>
       <c r="FX10" t="n">
-        <v>5.282936967887508e-07</v>
+        <v>0.0006314755883067846</v>
       </c>
       <c r="FY10" t="n">
-        <v>1.396880861648242e-06</v>
+        <v>0.001870795036666095</v>
       </c>
       <c r="FZ10" t="n">
-        <v>2.625571369208046e-06</v>
+        <v>0.0006138602620922029</v>
       </c>
       <c r="GA10" t="n">
-        <v>1.234082134260461e-07</v>
+        <v>0.0006985203945077956</v>
       </c>
       <c r="GB10" t="n">
-        <v>2.939892510767095e-06</v>
+        <v>0.0002004161797231063</v>
       </c>
       <c r="GC10" t="n">
-        <v>3.447067058459652e-07</v>
+        <v>0.0003485313500277698</v>
       </c>
       <c r="GD10" t="n">
-        <v>2.736362375799217e-06</v>
+        <v>0.001737688900902867</v>
       </c>
       <c r="GE10" t="n">
-        <v>9.397546705258719e-07</v>
+        <v>0.002078122459352016</v>
       </c>
       <c r="GF10" t="n">
-        <v>3.058237552977516e-06</v>
+        <v>0.0003558298049028963</v>
       </c>
       <c r="GG10" t="n">
-        <v>8.722203688193986e-07</v>
+        <v>0.000427215825766325</v>
       </c>
     </row>
     <row r="11">
@@ -6694,1709 +6694,1709 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.306401984483955e-10</v>
+        <v>2.119409536760486e-09</v>
       </c>
       <c r="B12" t="n">
-        <v>1.908548874496319e-09</v>
+        <v>1.206363720029913e-08</v>
       </c>
       <c r="C12" t="n">
-        <v>2.657752062873442e-08</v>
+        <v>1.67946168083688e-09</v>
       </c>
       <c r="D12" t="n">
-        <v>3.141855886568123e-09</v>
+        <v>2.459874792748451e-08</v>
       </c>
       <c r="E12" t="n">
-        <v>2.454856584677145e-08</v>
+        <v>3.385614677497983e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>1.191033405234521e-08</v>
+        <v>3.417871541344653e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>1.442869157486371e-09</v>
+        <v>1.42471345832007e-09</v>
       </c>
       <c r="H12" t="n">
-        <v>1.307737695910305e-09</v>
+        <v>6.039340139096794e-10</v>
       </c>
       <c r="I12" t="n">
-        <v>1.478888211892126e-08</v>
+        <v>1.017763651134374e-09</v>
       </c>
       <c r="J12" t="n">
-        <v>2.225882145268088e-09</v>
+        <v>4.960450716851028e-09</v>
       </c>
       <c r="K12" t="n">
-        <v>2.005042798458589e-09</v>
+        <v>6.475616487477964e-09</v>
       </c>
       <c r="L12" t="n">
-        <v>2.822409861380493e-08</v>
+        <v>4.269350428742769e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>7.211104602333762e-09</v>
+        <v>1.373858360409486e-08</v>
       </c>
       <c r="N12" t="n">
-        <v>1.591363307795746e-08</v>
+        <v>6.469265567687899e-09</v>
       </c>
       <c r="O12" t="n">
-        <v>5.479828590893021e-09</v>
+        <v>2.933905562940708e-09</v>
       </c>
       <c r="P12" t="n">
-        <v>3.506448242873716e-09</v>
+        <v>4.059522495936108e-09</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.152828499328962e-09</v>
+        <v>5.834911220858885e-09</v>
       </c>
       <c r="R12" t="n">
-        <v>1.63470588177006e-08</v>
+        <v>2.052936709517894e-10</v>
       </c>
       <c r="S12" t="n">
-        <v>4.019159671742045e-09</v>
+        <v>1.517477699053416e-09</v>
       </c>
       <c r="T12" t="n">
-        <v>5.486600507254025e-09</v>
+        <v>2.401961962661403e-09</v>
       </c>
       <c r="U12" t="n">
-        <v>3.584180507942847e-09</v>
+        <v>1.573864816251103e-09</v>
       </c>
       <c r="V12" t="n">
-        <v>6.570286981144591e-09</v>
+        <v>8.938446094397534e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>4.574840062332441e-09</v>
+        <v>3.920464397566548e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>7.064981377702395e-10</v>
+        <v>1.765560364574981e-09</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.474493664474721e-09</v>
+        <v>8.033221199355012e-09</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.018424786840114e-09</v>
+        <v>1.629335555364264e-12</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.877170584587475e-09</v>
+        <v>2.393893749896847e-09</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.68743674588967e-09</v>
+        <v>1.250530790031235e-10</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.231982846964911e-09</v>
+        <v>1.5997209112939e-09</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.877397958262918e-09</v>
+        <v>1.054725862204009e-09</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.324125031842982e-09</v>
+        <v>3.242826895899498e-09</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.233387862484506e-09</v>
+        <v>4.978605971928118e-09</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.837324514752936e-09</v>
+        <v>2.977507129742207e-09</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.451060021613216e-09</v>
+        <v>1.595074294868937e-09</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.966641734138193e-09</v>
+        <v>1.51120793656645e-09</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6.643829486563391e-09</v>
+        <v>1.746661149049089e-10</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.749430378339412e-09</v>
+        <v>1.863141418922964e-09</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.727224333147319e-10</v>
+        <v>2.28595609108595e-09</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.673351622879295e-09</v>
+        <v>1.566324014934395e-10</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.692700091204813e-09</v>
+        <v>1.741780719655139e-09</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.533631609542454e-09</v>
+        <v>8.532300976860085e-10</v>
       </c>
       <c r="AP12" t="n">
-        <v>5.236397093710821e-09</v>
+        <v>2.100058793530479e-09</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.909541830213968e-10</v>
+        <v>2.893461914510453e-09</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.558403406320963e-09</v>
+        <v>1.890538392501639e-09</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.965465733557494e-10</v>
+        <v>1.67617497659478e-09</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.021113193999668e-09</v>
+        <v>9.50235445884573e-11</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.594652270815345e-09</v>
+        <v>6.165338906072293e-09</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.114548719982622e-08</v>
+        <v>9.327787153790013e-11</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.231197366280412e-09</v>
+        <v>1.152447737240436e-08</v>
       </c>
       <c r="AX12" t="n">
-        <v>8.100359494278564e-09</v>
+        <v>2.144827870864674e-09</v>
       </c>
       <c r="AY12" t="n">
-        <v>5.651784817928274e-09</v>
+        <v>1.51027557127037e-09</v>
       </c>
       <c r="AZ12" t="n">
-        <v>3.796214009810228e-09</v>
+        <v>1.214332412402541e-09</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.122708396891994e-09</v>
+        <v>3.027887718332067e-09</v>
       </c>
       <c r="BB12" t="n">
-        <v>3.119003721963054e-09</v>
+        <v>4.082978843911178e-09</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.35015021385243e-09</v>
+        <v>2.674549470782495e-11</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.167506535892926e-09</v>
+        <v>1.503611679609662e-10</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.028521268153781e-08</v>
+        <v>1.385820569410612e-09</v>
       </c>
       <c r="BF12" t="n">
-        <v>2.225391426691203e-09</v>
+        <v>2.114813213438538e-09</v>
       </c>
       <c r="BG12" t="n">
-        <v>6.493620752223705e-09</v>
+        <v>3.963191996803062e-09</v>
       </c>
       <c r="BH12" t="n">
-        <v>4.322825208902259e-09</v>
+        <v>3.684111460344752e-09</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.39466793669385e-09</v>
+        <v>3.495162603783797e-09</v>
       </c>
       <c r="BJ12" t="n">
-        <v>2.680401900434504e-09</v>
+        <v>8.327826428455865e-09</v>
       </c>
       <c r="BK12" t="n">
-        <v>3.511840152015111e-09</v>
+        <v>7.93664245435366e-10</v>
       </c>
       <c r="BL12" t="n">
-        <v>2.496062911916397e-09</v>
+        <v>5.068295227950159e-10</v>
       </c>
       <c r="BM12" t="n">
-        <v>7.045537486760622e-10</v>
+        <v>1.117487657964489e-09</v>
       </c>
       <c r="BN12" t="n">
-        <v>9.082391727588401e-09</v>
+        <v>2.749890759545792e-09</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.052438802773281e-09</v>
+        <v>1.536677007862863e-09</v>
       </c>
       <c r="BP12" t="n">
-        <v>2.564119139236709e-09</v>
+        <v>1.639930413688262e-09</v>
       </c>
       <c r="BQ12" t="n">
-        <v>3.539682769115871e-09</v>
+        <v>2.08452299865769e-09</v>
       </c>
       <c r="BR12" t="n">
-        <v>3.17047610387533e-09</v>
+        <v>1.784195347021011e-09</v>
       </c>
       <c r="BS12" t="n">
-        <v>1.66901414910825e-09</v>
+        <v>5.158345972589018e-10</v>
       </c>
       <c r="BT12" t="n">
-        <v>5.977029982062732e-10</v>
+        <v>1.692529449925928e-10</v>
       </c>
       <c r="BU12" t="n">
-        <v>1.940319460658202e-09</v>
+        <v>6.031145027840523e-10</v>
       </c>
       <c r="BV12" t="n">
-        <v>5.938878278044513e-09</v>
+        <v>3.938144033099888e-09</v>
       </c>
       <c r="BW12" t="n">
-        <v>3.562715678029349e-09</v>
+        <v>1.808756144860979e-09</v>
       </c>
       <c r="BX12" t="n">
-        <v>6.825801035503787e-10</v>
+        <v>5.064231700657729e-09</v>
       </c>
       <c r="BY12" t="n">
-        <v>9.790867672165859e-09</v>
+        <v>3.951363680698705e-09</v>
       </c>
       <c r="BZ12" t="n">
-        <v>5.818091786125024e-09</v>
+        <v>9.99709870441734e-10</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.872840105221485e-09</v>
+        <v>3.352111699328475e-09</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.61028024248111e-09</v>
+        <v>2.074904692506152e-09</v>
       </c>
       <c r="CC12" t="n">
-        <v>4.550294363525609e-09</v>
+        <v>2.941284549251577e-09</v>
       </c>
       <c r="CD12" t="n">
-        <v>2.797527987041803e-09</v>
+        <v>2.726071035574762e-10</v>
       </c>
       <c r="CE12" t="n">
-        <v>3.628485734097353e-09</v>
+        <v>2.272037447070829e-09</v>
       </c>
       <c r="CF12" t="n">
-        <v>4.536488962259e-09</v>
+        <v>2.305258428592083e-09</v>
       </c>
       <c r="CG12" t="n">
-        <v>5.034570538242633e-10</v>
+        <v>2.416954858475151e-09</v>
       </c>
       <c r="CH12" t="n">
-        <v>5.892383025951631e-09</v>
+        <v>1.01852315470552e-09</v>
       </c>
       <c r="CI12" t="n">
-        <v>4.78584549767902e-09</v>
+        <v>3.249467916965898e-10</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.854229769726601e-09</v>
+        <v>1.72464398318084e-09</v>
       </c>
       <c r="CK12" t="n">
-        <v>1.917306979848377e-09</v>
+        <v>1.094792367872799e-09</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.409280914188571e-09</v>
+        <v>2.055791092914205e-09</v>
       </c>
       <c r="CM12" t="n">
-        <v>6.408495067944386e-09</v>
+        <v>4.020038524288339e-09</v>
       </c>
       <c r="CN12" t="n">
-        <v>1.442114960781282e-08</v>
+        <v>3.534939452265462e-09</v>
       </c>
       <c r="CO12" t="n">
-        <v>6.224329940351936e-10</v>
+        <v>2.748273553176972e-10</v>
       </c>
       <c r="CP12" t="n">
-        <v>2.33756525247486e-09</v>
+        <v>4.617239035553666e-09</v>
       </c>
       <c r="CQ12" t="n">
-        <v>5.030451610821274e-09</v>
+        <v>1.989651332579001e-09</v>
       </c>
       <c r="CR12" t="n">
-        <v>1.7497679971612e-09</v>
+        <v>1.577731723045872e-09</v>
       </c>
       <c r="CS12" t="n">
-        <v>2.704990231805482e-09</v>
+        <v>2.489759953760995e-09</v>
       </c>
       <c r="CT12" t="n">
-        <v>7.506235077947565e-10</v>
+        <v>8.408672869109068e-09</v>
       </c>
       <c r="CU12" t="n">
-        <v>6.40205621849077e-09</v>
+        <v>1.854505771170523e-09</v>
       </c>
       <c r="CV12" t="n">
-        <v>3.131290338131976e-09</v>
+        <v>2.800587539653066e-11</v>
       </c>
       <c r="CW12" t="n">
-        <v>3.300033579733963e-09</v>
+        <v>2.225341910744305e-09</v>
       </c>
       <c r="CX12" t="n">
-        <v>4.889827653897783e-09</v>
+        <v>2.004988841619593e-09</v>
       </c>
       <c r="CY12" t="n">
-        <v>5.746166875653103e-10</v>
+        <v>4.16403933556353e-09</v>
       </c>
       <c r="CZ12" t="n">
-        <v>6.900637838924695e-09</v>
+        <v>1.35802835643517e-09</v>
       </c>
       <c r="DA12" t="n">
-        <v>4.936803854604932e-09</v>
+        <v>1.712712471846345e-10</v>
       </c>
       <c r="DB12" t="n">
-        <v>9.800291689288088e-10</v>
+        <v>1.378143155150724e-09</v>
       </c>
       <c r="DC12" t="n">
-        <v>1.076336242356035e-09</v>
+        <v>1.279841455037456e-09</v>
       </c>
       <c r="DD12" t="n">
-        <v>3.448467955635692e-09</v>
+        <v>1.596789811486587e-09</v>
       </c>
       <c r="DE12" t="n">
-        <v>5.652914580878132e-09</v>
+        <v>3.504780909935334e-09</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.388212922392995e-08</v>
+        <v>1.765964707800549e-09</v>
       </c>
       <c r="DG12" t="n">
-        <v>7.015025005330244e-09</v>
+        <v>3.977160822898895e-09</v>
       </c>
       <c r="DH12" t="n">
-        <v>1.330047849634752e-09</v>
+        <v>1.704624530418641e-08</v>
       </c>
       <c r="DI12" t="n">
-        <v>4.043614776350068e-09</v>
+        <v>6.64620225521162e-09</v>
       </c>
       <c r="DJ12" t="n">
-        <v>2.771792573241783e-09</v>
+        <v>4.499445260819357e-11</v>
       </c>
       <c r="DK12" t="n">
-        <v>9.719296478749584e-10</v>
+        <v>3.873982912239171e-09</v>
       </c>
       <c r="DL12" t="n">
-        <v>4.61684246388927e-10</v>
+        <v>1.028894480725739e-08</v>
       </c>
       <c r="DM12" t="n">
-        <v>3.369586165646865e-09</v>
+        <v>1.072741229179996e-09</v>
       </c>
       <c r="DN12" t="n">
-        <v>1.793892256962692e-10</v>
+        <v>6.025677179444244e-10</v>
       </c>
       <c r="DO12" t="n">
-        <v>4.578204926275475e-09</v>
+        <v>1.286680428869147e-09</v>
       </c>
       <c r="DP12" t="n">
-        <v>8.10584432908712e-10</v>
+        <v>4.762241712086279e-09</v>
       </c>
       <c r="DQ12" t="n">
-        <v>3.089273725720432e-09</v>
+        <v>2.350970751407999e-09</v>
       </c>
       <c r="DR12" t="n">
-        <v>8.313705279761052e-10</v>
+        <v>2.866253678845965e-09</v>
       </c>
       <c r="DS12" t="n">
-        <v>2.825511824511295e-09</v>
+        <v>2.72648348342841e-09</v>
       </c>
       <c r="DT12" t="n">
-        <v>1.402777005665712e-09</v>
+        <v>9.403351430847806e-10</v>
       </c>
       <c r="DU12" t="n">
-        <v>5.5731579351459e-09</v>
+        <v>3.221201638758941e-10</v>
       </c>
       <c r="DV12" t="n">
-        <v>1.434099505814856e-09</v>
+        <v>4.060389358073735e-09</v>
       </c>
       <c r="DW12" t="n">
-        <v>1.000924232386069e-09</v>
+        <v>5.74737368808087e-10</v>
       </c>
       <c r="DX12" t="n">
-        <v>1.709630881308044e-09</v>
+        <v>3.821080341026573e-09</v>
       </c>
       <c r="DY12" t="n">
-        <v>7.681245639545864e-10</v>
+        <v>2.482965832939499e-09</v>
       </c>
       <c r="DZ12" t="n">
-        <v>7.114978606281852e-10</v>
+        <v>1.541619387701587e-09</v>
       </c>
       <c r="EA12" t="n">
-        <v>3.270469228766615e-09</v>
+        <v>4.59631799287763e-09</v>
       </c>
       <c r="EB12" t="n">
-        <v>1.363222201788972e-09</v>
+        <v>3.887092425713945e-09</v>
       </c>
       <c r="EC12" t="n">
-        <v>3.720297125919814e-10</v>
+        <v>2.11388254123257e-10</v>
       </c>
       <c r="ED12" t="n">
-        <v>1.047867764780719e-10</v>
+        <v>1.952770833923978e-09</v>
       </c>
       <c r="EE12" t="n">
-        <v>2.742557847490446e-10</v>
+        <v>7.307550120572159e-10</v>
       </c>
       <c r="EF12" t="n">
-        <v>3.480394861199443e-09</v>
+        <v>5.678260084351905e-10</v>
       </c>
       <c r="EG12" t="n">
-        <v>6.919765871415962e-10</v>
+        <v>7.106702448744784e-10</v>
       </c>
       <c r="EH12" t="n">
-        <v>6.05407279863357e-09</v>
+        <v>1.363652191166409e-09</v>
       </c>
       <c r="EI12" t="n">
-        <v>1.150926798310081e-09</v>
+        <v>3.208353138717257e-09</v>
       </c>
       <c r="EJ12" t="n">
-        <v>6.650975770128298e-09</v>
+        <v>2.419733302616578e-09</v>
       </c>
       <c r="EK12" t="n">
-        <v>1.012141748191198e-08</v>
+        <v>2.96576624370104e-10</v>
       </c>
       <c r="EL12" t="n">
-        <v>1.040172281641105e-09</v>
+        <v>2.362471995809301e-09</v>
       </c>
       <c r="EM12" t="n">
-        <v>5.42994919860984e-11</v>
+        <v>9.809483225708959e-10</v>
       </c>
       <c r="EN12" t="n">
-        <v>3.672856185854556e-10</v>
+        <v>1.025528995057812e-09</v>
       </c>
       <c r="EO12" t="n">
-        <v>1.573798535936533e-09</v>
+        <v>5.708130634829445e-10</v>
       </c>
       <c r="EP12" t="n">
-        <v>1.984085340467345e-09</v>
+        <v>1.165664231805863e-10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>2.922708075558944e-09</v>
+        <v>2.236814511391572e-09</v>
       </c>
       <c r="ER12" t="n">
-        <v>2.944023469453327e-09</v>
+        <v>1.653171377569151e-09</v>
       </c>
       <c r="ES12" t="n">
-        <v>1.209822242387304e-09</v>
+        <v>7.433524018551907e-09</v>
       </c>
       <c r="ET12" t="n">
-        <v>3.105831702931994e-10</v>
+        <v>2.472302085276823e-10</v>
       </c>
       <c r="EU12" t="n">
-        <v>1.568858598588463e-09</v>
+        <v>1.154314199780515e-09</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.043128472488775e-09</v>
+        <v>3.917727475766242e-09</v>
       </c>
       <c r="EW12" t="n">
-        <v>1.755841250172807e-09</v>
+        <v>7.756942865810856e-10</v>
       </c>
       <c r="EX12" t="n">
-        <v>3.372035983773003e-09</v>
+        <v>8.785957517076781e-10</v>
       </c>
       <c r="EY12" t="n">
-        <v>3.347598198644164e-09</v>
+        <v>2.215761130131e-09</v>
       </c>
       <c r="EZ12" t="n">
-        <v>4.83708628706836e-09</v>
+        <v>2.189790127005153e-09</v>
       </c>
       <c r="FA12" t="n">
-        <v>3.278642357606998e-10</v>
+        <v>3.673371606893738e-09</v>
       </c>
       <c r="FB12" t="n">
-        <v>5.019004767348179e-09</v>
+        <v>5.636249245100089e-10</v>
       </c>
       <c r="FC12" t="n">
-        <v>4.008102294505989e-09</v>
+        <v>7.840630228406198e-11</v>
       </c>
       <c r="FD12" t="n">
-        <v>1.501680446658327e-09</v>
+        <v>1.673463922990948e-09</v>
       </c>
       <c r="FE12" t="n">
-        <v>2.112179764424127e-09</v>
+        <v>1.442801322859566e-09</v>
       </c>
       <c r="FF12" t="n">
-        <v>3.440156604028743e-09</v>
+        <v>2.240163832212261e-09</v>
       </c>
       <c r="FG12" t="n">
-        <v>4.280805931955456e-09</v>
+        <v>1.935473170622259e-10</v>
       </c>
       <c r="FH12" t="n">
-        <v>1.585989561903034e-09</v>
+        <v>1.685516060057068e-09</v>
       </c>
       <c r="FI12" t="n">
-        <v>2.540581300891631e-09</v>
+        <v>4.265413355852843e-09</v>
       </c>
       <c r="FJ12" t="n">
-        <v>1.904540303243607e-09</v>
+        <v>6.970416688290015e-09</v>
       </c>
       <c r="FK12" t="n">
-        <v>5.975249184331233e-09</v>
+        <v>1.929681303636244e-09</v>
       </c>
       <c r="FL12" t="n">
-        <v>7.311536376342076e-10</v>
+        <v>5.920053891550481e-10</v>
       </c>
       <c r="FM12" t="n">
-        <v>2.472704929701308e-09</v>
+        <v>3.37801187022535e-09</v>
       </c>
       <c r="FN12" t="n">
-        <v>1.422548190355144e-09</v>
+        <v>1.338949062734685e-09</v>
       </c>
       <c r="FO12" t="n">
-        <v>3.393812120222606e-09</v>
+        <v>1.109611069693983e-09</v>
       </c>
       <c r="FP12" t="n">
-        <v>1.320311637798e-09</v>
+        <v>4.060791702897859e-09</v>
       </c>
       <c r="FQ12" t="n">
-        <v>5.274480407990723e-09</v>
+        <v>9.981672155490173e-10</v>
       </c>
       <c r="FR12" t="n">
-        <v>1.32522770535104e-09</v>
+        <v>8.059337086585572e-10</v>
       </c>
       <c r="FS12" t="n">
-        <v>2.775772944829669e-09</v>
+        <v>2.574446211767167e-10</v>
       </c>
       <c r="FT12" t="n">
-        <v>3.085249167256165e-09</v>
+        <v>5.671068947776803e-09</v>
       </c>
       <c r="FU12" t="n">
-        <v>5.94483839932991e-09</v>
+        <v>1.016449813207032e-09</v>
       </c>
       <c r="FV12" t="n">
-        <v>3.428364259150385e-10</v>
+        <v>1.567421525905388e-09</v>
       </c>
       <c r="FW12" t="n">
-        <v>9.892475727468764e-10</v>
+        <v>2.950756083919259e-09</v>
       </c>
       <c r="FX12" t="n">
-        <v>5.583179252255377e-09</v>
+        <v>9.908106557432461e-10</v>
       </c>
       <c r="FY12" t="n">
-        <v>1.721676134991412e-09</v>
+        <v>3.964749861751216e-09</v>
       </c>
       <c r="FZ12" t="n">
-        <v>3.020016237087475e-09</v>
+        <v>7.742759211559758e-10</v>
       </c>
       <c r="GA12" t="n">
-        <v>3.507286128190401e-10</v>
+        <v>4.308869927527326e-10</v>
       </c>
       <c r="GB12" t="n">
-        <v>9.933348588120339e-11</v>
+        <v>9.21452247837351e-10</v>
       </c>
       <c r="GC12" t="n">
-        <v>1.834843388337504e-09</v>
+        <v>2.98811708709934e-09</v>
       </c>
       <c r="GD12" t="n">
-        <v>4.142460152678495e-09</v>
+        <v>4.564142674912119e-10</v>
       </c>
       <c r="GE12" t="n">
-        <v>2.473657723101041e-09</v>
+        <v>8.777043092322856e-09</v>
       </c>
       <c r="GF12" t="n">
-        <v>9.507709064493497e-10</v>
+        <v>4.3309017483395e-10</v>
       </c>
       <c r="GG12" t="n">
-        <v>8.183674848893929e-10</v>
+        <v>3.510968848985385e-09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0009687576675787568</v>
+        <v>0.001026009442284703</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0007614516653120518</v>
+        <v>0.006094458978623152</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0009310105815529823</v>
+        <v>0.0002809820289257914</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002301823580637574</v>
+        <v>0.003596931230276823</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002279525157064199</v>
+        <v>0.0007960060611367226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0003302674740552902</v>
+        <v>0.00399483647197485</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000322904612403363</v>
+        <v>0.0003208111738786101</v>
       </c>
       <c r="H13" t="n">
-        <v>9.776285878615454e-05</v>
+        <v>0.0004719180869869888</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00228069955483079</v>
+        <v>8.168163185473531e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006700084777548909</v>
+        <v>0.001437266357243061</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0007899189367890358</v>
+        <v>0.004178228788077831</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001358937588520348</v>
+        <v>0.0004256664251442999</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002045504748821259</v>
+        <v>0.003948725759983063</v>
       </c>
       <c r="N13" t="n">
-        <v>0.002590239280834794</v>
+        <v>0.001863379264250398</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001117871492169797</v>
+        <v>0.004915987141430378</v>
       </c>
       <c r="P13" t="n">
-        <v>2.489265170879662e-05</v>
+        <v>0.0004446032689884305</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0004449769330676645</v>
+        <v>0.0009018722339533269</v>
       </c>
       <c r="R13" t="n">
-        <v>0.002055788645520806</v>
+        <v>0.0002687832748051733</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0003375676460564137</v>
+        <v>0.0003993542632088065</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0001898833725135773</v>
+        <v>0.001163151813670993</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0001491092116339132</v>
+        <v>0.0003406528558116406</v>
       </c>
       <c r="V13" t="n">
-        <v>0.001001329394057393</v>
+        <v>0.000808826822321862</v>
       </c>
       <c r="W13" t="n">
-        <v>0.001736256061121821</v>
+        <v>0.0006045338814146817</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0008973419317044318</v>
+        <v>0.000419693416915834</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0002656069700606167</v>
+        <v>0.0005793782765977085</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.765947258216329e-05</v>
+        <v>0.0001225354499183595</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0003053215623367578</v>
+        <v>0.0005525146261788905</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0001869693514890969</v>
+        <v>0.0001806472719181329</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0002324256201973185</v>
+        <v>0.001059318543411791</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0001028836122713983</v>
+        <v>0.00012907077325508</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0005583051242865622</v>
+        <v>0.0006451061926782131</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0005487237358465791</v>
+        <v>0.0006068485090509057</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0006130739348009229</v>
+        <v>0.000540147942956537</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0003040743176825345</v>
+        <v>0.001031617051921785</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0009062066092155874</v>
+        <v>0.0002337299665668979</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.001130488701164722</v>
+        <v>6.196173490025103e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0003700275265146047</v>
+        <v>0.0008222722681239247</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0008768577827140689</v>
+        <v>0.0008256791043095291</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0002329152775928378</v>
+        <v>3.009544525411911e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0006158753531053662</v>
+        <v>0.0002716429298743606</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0001636824163142592</v>
+        <v>0.0002297936443937942</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.001216419390402734</v>
+        <v>0.0008432753966189921</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0003067860670853406</v>
+        <v>0.0006652464508078992</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0005041487165726721</v>
+        <v>6.052039680071175e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0002342834050068632</v>
+        <v>0.0007266003522090614</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0001280712895095348</v>
+        <v>0.001043282216414809</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0001372726110275835</v>
+        <v>0.005230533424764872</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0006856422405689955</v>
+        <v>0.000154779088916257</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.001338074333034456</v>
+        <v>0.0004056895559187979</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0005075076478533447</v>
+        <v>0.001030670828185976</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.001605974975973368</v>
+        <v>0.00199162820354104</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7.911113789305091e-05</v>
+        <v>0.0006253575556911528</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0002289293042849749</v>
+        <v>0.001457010861486197</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0006912624230608344</v>
+        <v>0.0008128085755743086</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0001637056120671332</v>
+        <v>0.0007000387995503843</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0008398569189012051</v>
+        <v>0.0009113779524341226</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0004187643644399941</v>
+        <v>0.001496950513683259</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0005031776381656528</v>
+        <v>0.001703985966742039</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.0004058997728861868</v>
+        <v>0.002284280257299542</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0002508398320060223</v>
+        <v>0.001594534027390182</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0005760650965385139</v>
+        <v>1.2823729775846e-05</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0001485513930674642</v>
+        <v>0.001998679945245385</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0004982135142199695</v>
+        <v>0.0001778486475814134</v>
       </c>
       <c r="BL13" t="n">
-        <v>9.445870091440156e-05</v>
+        <v>0.0001486286637373269</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0002174845722038299</v>
+        <v>0.001645267591811717</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.000626292428933084</v>
+        <v>0.0006367264431901276</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0002194178377976641</v>
+        <v>0.001898567541502416</v>
       </c>
       <c r="BP13" t="n">
-        <v>2.756308822426945e-05</v>
+        <v>0.001462108455598354</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0004292647645343095</v>
+        <v>0.000383153441362083</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0001514907344244421</v>
+        <v>0.001060430891811848</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.0007615670911036432</v>
+        <v>0.0004588489537127316</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.0003940638853237033</v>
+        <v>0.0003606911050155759</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0003201013896614313</v>
+        <v>0.0005025903810746968</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0002509284822735935</v>
+        <v>0.002274592872709036</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0001179820246761665</v>
+        <v>0.0005321133648976684</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.00103453011251986</v>
+        <v>0.0001783907064236701</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.001137907733209431</v>
+        <v>0.0003810090420302004</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0002655852294992656</v>
+        <v>0.000312383723212406</v>
       </c>
       <c r="CA13" t="n">
-        <v>5.819012585561723e-05</v>
+        <v>0.00107221701182425</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0002183954638894647</v>
+        <v>0.0008307347889058292</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.001622960320673883</v>
+        <v>0.0005243947962298989</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0003400066925678402</v>
+        <v>0.0001399817119818181</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0003763558343052864</v>
+        <v>0.001169140450656414</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0001929338613990694</v>
+        <v>0.0006737303920090199</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.000491259794216603</v>
+        <v>0.0007789066294208169</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0005270529072731733</v>
+        <v>0.0004699379787780344</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0003067181678488851</v>
+        <v>0.0006714115152135491</v>
       </c>
       <c r="CJ13" t="n">
-        <v>8.486479055136442e-05</v>
+        <v>0.0002032430638791993</v>
       </c>
       <c r="CK13" t="n">
-        <v>6.426937761716545e-05</v>
+        <v>5.532383511308581e-05</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0002229012461612001</v>
+        <v>0.0003466935595497489</v>
       </c>
       <c r="CM13" t="n">
-        <v>9.135162690654397e-05</v>
+        <v>0.001277486560866237</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.001103217946365476</v>
+        <v>0.001023862976580858</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0001526750857010484</v>
+        <v>0.0003087161458097398</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0005543346051126719</v>
+        <v>0.000784296658821404</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.0005877293879166245</v>
+        <v>0.0007230911869555712</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.000676757947076112</v>
+        <v>0.0002999241987708956</v>
       </c>
       <c r="CS13" t="n">
-        <v>8.857581997290254e-05</v>
+        <v>6.910374213475734e-05</v>
       </c>
       <c r="CT13" t="n">
-        <v>2.961878089990932e-05</v>
+        <v>0.0003759521059691906</v>
       </c>
       <c r="CU13" t="n">
-        <v>3.236895645386539e-05</v>
+        <v>0.0001051579747581854</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0004144863050896674</v>
+        <v>4.221017661620863e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.0004910671850666404</v>
+        <v>0.0008676957222633064</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.0002010378811974078</v>
+        <v>0.0007221896667033434</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0004161843680776656</v>
+        <v>0.001112361089326441</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.000643634470179677</v>
+        <v>0.0003300897369626909</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0004622243868652731</v>
+        <v>0.0006045777117833495</v>
       </c>
       <c r="DB13" t="n">
-        <v>3.168327748426236e-05</v>
+        <v>0.0003318173694424331</v>
       </c>
       <c r="DC13" t="n">
-        <v>7.808486407157034e-05</v>
+        <v>0.000491530925501138</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0003431080840528011</v>
+        <v>0.000223427647142671</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0006555055733770132</v>
+        <v>0.0007874915609136224</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0009435211541131139</v>
+        <v>0.002180929761379957</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0009873132221400738</v>
+        <v>9.027276973938569e-05</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0007757713319733739</v>
+        <v>0.00165888003539294</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0002370253787375987</v>
+        <v>0.0004576408537104726</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0001050234204740264</v>
+        <v>4.495637404033914e-05</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0002690939290914685</v>
+        <v>0.001764827058650553</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.0002065979351755232</v>
+        <v>0.0008496122900396585</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0003425563627388328</v>
+        <v>0.0005878197262063622</v>
       </c>
       <c r="DN13" t="n">
-        <v>6.494042463600636e-05</v>
+        <v>0.00069260667078197</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.0002556620165705681</v>
+        <v>0.000743535696528852</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0003031626110896468</v>
+        <v>0.0007401409093290567</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0001086833799490705</v>
+        <v>0.0008584993192926049</v>
       </c>
       <c r="DR13" t="n">
-        <v>7.830798858776689e-05</v>
+        <v>0.0004856356827076524</v>
       </c>
       <c r="DS13" t="n">
-        <v>7.332561381190317e-06</v>
+        <v>2.832355676218867e-06</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0001718432322377339</v>
+        <v>3.023282624781132e-05</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0002560538414400071</v>
+        <v>0.0001498249039286748</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0006541133625432849</v>
+        <v>0.0004242083232384175</v>
       </c>
       <c r="DW13" t="n">
-        <v>9.628404950490221e-05</v>
+        <v>5.855901690665632e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>5.991691432427615e-05</v>
+        <v>9.831397619564086e-05</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0002275009464938194</v>
+        <v>0.001069061807356775</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0004313114914111793</v>
+        <v>0.0003051085222978145</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0001063612071448006</v>
+        <v>0.0003696767962537706</v>
       </c>
       <c r="EB13" t="n">
-        <v>1.58407237904612e-05</v>
+        <v>0.0001274843234568834</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0001453520526411012</v>
+        <v>0.0003151221899315715</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0001633592037251219</v>
+        <v>0.0001993761397898197</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0009181342902593315</v>
+        <v>6.330030737444758e-05</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.0003927494399249554</v>
+        <v>0.0004530579899437726</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0004414988216012716</v>
+        <v>5.341511132428423e-05</v>
       </c>
       <c r="EH13" t="n">
-        <v>3.017958806594834e-05</v>
+        <v>0.0002694441354833543</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0003232171293348074</v>
+        <v>0.0005600853473879397</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0004612522025126964</v>
+        <v>0.0001632783678360283</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0003428578202147037</v>
+        <v>0.0004160098324064165</v>
       </c>
       <c r="EL13" t="n">
-        <v>6.392106297425926e-05</v>
+        <v>0.0005672646220773458</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.0004344034532550722</v>
+        <v>0.0001754608092596754</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.0003102459595538676</v>
+        <v>6.567037780769169e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0003167630638927221</v>
+        <v>0.000718386028893292</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.0002214496780652553</v>
+        <v>0.000270275108050555</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0007094000466167927</v>
+        <v>0.0005843052640557289</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.000335140444803983</v>
+        <v>0.0006600114866159856</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.0005849547451362014</v>
+        <v>0.0006124961655586958</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0007315672701224685</v>
+        <v>0.001180006423965096</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0003001802833750844</v>
+        <v>0.0004548736033029854</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0003472868702374399</v>
+        <v>0.0006779560353606939</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0004290273645892739</v>
+        <v>0.0002722191857174039</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0003294064081273973</v>
+        <v>8.369580609723926e-05</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0004939225036650896</v>
+        <v>0.0007680284325033426</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0002689150278456509</v>
+        <v>0.0005056474474258721</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0002956389798782766</v>
+        <v>0.0007854312425479293</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0005452536861412227</v>
+        <v>0.0004331189556978643</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0003222792001906782</v>
+        <v>0.0006202966324053705</v>
       </c>
       <c r="FD13" t="n">
-        <v>1.119863736676052e-05</v>
+        <v>0.0004566387797240168</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0001218891848111525</v>
+        <v>0.0001105151677620597</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0004864890943281353</v>
+        <v>0.0004889773554168642</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.0001282423036172986</v>
+        <v>0.0005087749450467527</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.0003308795858174562</v>
+        <v>0.0007486384711228311</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0003239090146962553</v>
+        <v>0.0007027160027064383</v>
       </c>
       <c r="FJ13" t="n">
-        <v>3.38468817062676e-06</v>
+        <v>0.0002484297438059002</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0007903541554696858</v>
+        <v>1.502774830441922e-05</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0001955147017724812</v>
+        <v>0.0003865359467454255</v>
       </c>
       <c r="FM13" t="n">
-        <v>4.415002331370488e-05</v>
+        <v>9.175761078950018e-06</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0008114961674436927</v>
+        <v>0.0001201002887682989</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0001030312778311782</v>
+        <v>0.000250246113864705</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0001396811130689457</v>
+        <v>0.0008692223345860839</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.0004385900101624429</v>
+        <v>4.260882269591093e-05</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.000103213700640481</v>
+        <v>0.0001389201352139935</v>
       </c>
       <c r="FS13" t="n">
-        <v>1.331489329459146e-05</v>
+        <v>0.00107775698415935</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.000251006887992844</v>
+        <v>0.002603146946057677</v>
       </c>
       <c r="FU13" t="n">
-        <v>6.404296436812729e-05</v>
+        <v>0.0007215451914817095</v>
       </c>
       <c r="FV13" t="n">
-        <v>8.900339889805764e-05</v>
+        <v>0.000481904367916286</v>
       </c>
       <c r="FW13" t="n">
-        <v>3.22214218613226e-05</v>
+        <v>0.0009135511936619878</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0004966324777342379</v>
+        <v>1.241298741661012e-05</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0002983171143569052</v>
+        <v>0.0007598269730806351</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0003122072957921773</v>
+        <v>0.001005221041850746</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.000233568949624896</v>
+        <v>0.0003353733918629587</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0002411455207038671</v>
+        <v>0.0009864370804280043</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0001085044277715497</v>
+        <v>7.791006646584719e-05</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0002922226849477738</v>
+        <v>0.0004984478582628071</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.0001143081899499521</v>
+        <v>0.00221250532194972</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0003041925083380193</v>
+        <v>0.001294021727517247</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0004786665958818048</v>
+        <v>0.0003889563377015293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.001897125504910946</v>
+        <v>0.004745980724692345</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003109710523858666</v>
+        <v>0.003508965950459242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00552587304264307</v>
+        <v>0.01112652476876974</v>
       </c>
       <c r="D14" t="n">
-        <v>0.008491000160574913</v>
+        <v>0.01136132702231407</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001429750118404627</v>
+        <v>0.002743377117440104</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0214022770524025</v>
+        <v>0.001411631819792092</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0008171767694875598</v>
+        <v>0.001384332310408354</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01779483631253242</v>
+        <v>0.0032721480820328</v>
       </c>
       <c r="I14" t="n">
-        <v>0.007400385104119778</v>
+        <v>0.001504580024629831</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003039538860321045</v>
+        <v>0.006272776518017054</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00180712272413075</v>
+        <v>0.003166417591273785</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003993129823356867</v>
+        <v>0.008642925880849361</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01120280008763075</v>
+        <v>0.01135460566729307</v>
       </c>
       <c r="N14" t="n">
-        <v>0.002714414149522781</v>
+        <v>0.00345791969448328</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01875435933470726</v>
+        <v>0.001568628358654678</v>
       </c>
       <c r="P14" t="n">
-        <v>0.000390396686270833</v>
+        <v>0.0007061869837343693</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01861975155770779</v>
+        <v>0.004172362387180328</v>
       </c>
       <c r="R14" t="n">
-        <v>0.008443095721304417</v>
+        <v>0.001099521876312792</v>
       </c>
       <c r="S14" t="n">
-        <v>0.002963962964713573</v>
+        <v>0.003167235758155584</v>
       </c>
       <c r="T14" t="n">
-        <v>0.001757862279191613</v>
+        <v>0.0006292512989602983</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0003792271018028259</v>
+        <v>0.0002196168643422425</v>
       </c>
       <c r="V14" t="n">
-        <v>0.003690371988341212</v>
+        <v>0.0002356582845095545</v>
       </c>
       <c r="W14" t="n">
-        <v>0.00583092262968421</v>
+        <v>0.001518812379799783</v>
       </c>
       <c r="X14" t="n">
-        <v>0.002660755999386311</v>
+        <v>0.0005812982562929392</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0005432206089608371</v>
+        <v>0.001141737098805606</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.001373964245431125</v>
+        <v>0.004221337847411633</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.001577289891429245</v>
+        <v>2.768178819678724e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.001053443527780473</v>
+        <v>0.0001368229277431965</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.569650188088417e-05</v>
+        <v>0.001687646843492985</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.001331654377281666</v>
+        <v>0.0002478132373653352</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.004367952700704336</v>
+        <v>0.003276519477367401</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.003905623918399215</v>
+        <v>0.002245152601972222</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.002259748056530952</v>
+        <v>0.0001147350194514729</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.004590366035699844</v>
+        <v>0.000350463145878166</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.001668515847995877</v>
+        <v>0.001385836396366358</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.0009044730104506016</v>
+        <v>0.0001007088285405189</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.001200094469822943</v>
+        <v>0.0004557481152005494</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.003207179717719555</v>
+        <v>0.001923216506838799</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.004795456770807505</v>
+        <v>0.0007447208045050502</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.0009352826746180654</v>
+        <v>0.0009471155935898423</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.005884045269340277</v>
+        <v>0.0006485898047685623</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.001979708205908537</v>
+        <v>0.001344734453596175</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0009479774162173271</v>
+        <v>0.002007872331887484</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.0004138044314458966</v>
+        <v>0.000479257432743907</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.001684603281319141</v>
+        <v>0.0009718709043227136</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.0013793611433357</v>
+        <v>0.0003802625287789851</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.001237897668033838</v>
+        <v>0.001404750277288258</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0040721595287323</v>
+        <v>0.006568947806954384</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.00107063353061676</v>
+        <v>0.009373058564960957</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0003861912409774959</v>
+        <v>0.001417348277755082</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.01367713510990143</v>
+        <v>0.00320254429243505</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.0005632746033370495</v>
+        <v>0.001168709481135011</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.01003920566290617</v>
+        <v>0.004193644504994154</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.003097585402429104</v>
+        <v>0.001804391387850046</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.001367016695439816</v>
+        <v>0.006771685555577278</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.0004879818006884307</v>
+        <v>0.002169118728488684</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.002383030019700527</v>
+        <v>0.0009804383153095841</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.003940114751458168</v>
+        <v>0.001487159170210361</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.0007447565440088511</v>
+        <v>0.005952591542154551</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.0005386141128838062</v>
+        <v>0.001086286036297679</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.001518182689324021</v>
+        <v>0.004291389137506485</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.006840736605226994</v>
+        <v>0.00750832911580801</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.001145034795626998</v>
+        <v>0.0006711359019391239</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.001601960742846131</v>
+        <v>4.954577889293432e-05</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.0006422706646844745</v>
+        <v>0.001705289701931179</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.004195572342723608</v>
+        <v>0.002868551760911942</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.003655014326795936</v>
+        <v>0.002141440752893686</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.002563480753451586</v>
+        <v>0.00350791378878057</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.001925409073010087</v>
+        <v>0.0007261065184138715</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.001230726018548012</v>
+        <v>0.002363522304221988</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0002988064661622047</v>
+        <v>0.001099553541280329</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.0005566705367527902</v>
+        <v>0.002485297620296478</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.00281530013307929</v>
+        <v>0.0008605004986748099</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.0008626453345641494</v>
+        <v>0.001652081264182925</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.000197574554476887</v>
+        <v>0.003802027320489287</v>
       </c>
       <c r="BX14" t="n">
-        <v>8.106743916869164e-05</v>
+        <v>0.004579913802444935</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.00017291541735176</v>
+        <v>0.0007123987306840718</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.006518860813230276</v>
+        <v>0.000627119850832969</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.002178977942094207</v>
+        <v>0.00188796641305089</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.004833568353205919</v>
+        <v>0.005124984309077263</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.004486816003918648</v>
+        <v>0.001826583291403949</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.0001493753516115248</v>
+        <v>0.001154870493337512</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.002594635123386979</v>
+        <v>0.001433210680261254</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.001724039320833981</v>
+        <v>0.002548787742853165</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.003550009336322546</v>
+        <v>0.002141994656994939</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.000189366313861683</v>
+        <v>0.001066495082341135</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.004086770582944155</v>
+        <v>0.0009107374353334308</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.0008250732789747417</v>
+        <v>0.0009639877825975418</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.003270831657573581</v>
+        <v>0.0008891290053725243</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.0004214267246425152</v>
+        <v>0.001700180931948125</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.002573578618466854</v>
+        <v>0.003327313344925642</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.003896829672157764</v>
+        <v>0.001048854901455343</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.004008398856967688</v>
+        <v>0.00015304668340832</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.003103703958913684</v>
+        <v>0.001134353107772768</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.0046770297922194</v>
+        <v>0.0007728040800429881</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.005513063166290522</v>
+        <v>0.002298661973327398</v>
       </c>
       <c r="CS14" t="n">
-        <v>1.228286419063807e-05</v>
+        <v>0.001437416300177574</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.001379819819703698</v>
+        <v>0.00271713687106967</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.003613947425037622</v>
+        <v>0.001284633879549801</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.0005949775222688913</v>
+        <v>0.001236941432580352</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.00327093550004065</v>
+        <v>0.0007211234769783914</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.002177317161113024</v>
+        <v>0.001603104290552437</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.003914533648639917</v>
+        <v>0.001563293044455349</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.0007678185356780887</v>
+        <v>0.001169811584986746</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.00405966816470027</v>
+        <v>0.000784457428380847</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.0002271377015858889</v>
+        <v>0.0005707286763936281</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.00398747343569994</v>
+        <v>0.0004063549567945302</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.000359577068593353</v>
+        <v>0.001714923186227679</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.00462992349639535</v>
+        <v>0.001046039978973567</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.0002295466838404536</v>
+        <v>0.00750203849747777</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.001294329296797514</v>
+        <v>0.0004345099441707134</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.001577580464072526</v>
+        <v>0.001941944239661098</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.004649842623621225</v>
+        <v>0.0001136424107244238</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.003053069580346346</v>
+        <v>0.005378894042223692</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.001494430820457637</v>
+        <v>0.007193757686764002</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.002928166184574366</v>
+        <v>0.0006864985916763544</v>
       </c>
       <c r="DM14" t="n">
-        <v>2.023635897785425e-05</v>
+        <v>0.0001767753856256604</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.001743712229654193</v>
+        <v>0.0006579856853932142</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.002392873167991638</v>
+        <v>0.001986523624509573</v>
       </c>
       <c r="DP14" t="n">
-        <v>3.981491317972541e-05</v>
+        <v>0.002579196821898222</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0006600047927349806</v>
+        <v>0.0004674035881180316</v>
       </c>
       <c r="DR14" t="n">
-        <v>4.088945570401847e-05</v>
+        <v>0.002337700920179486</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.003611027961596847</v>
+        <v>0.0001996969804167747</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.0009203831432387233</v>
+        <v>0.001273067784495652</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.002033189404755831</v>
+        <v>0.001549768378026783</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.0006317032966762781</v>
+        <v>0.002077425364404917</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.0001556872157379985</v>
+        <v>0.0007392648840323091</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.001233229646459222</v>
+        <v>0.001337577821686864</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.002486155135557055</v>
+        <v>0.0005359018687158823</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.002303493674844503</v>
+        <v>0.00192733877338469</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.0007415384752675891</v>
+        <v>0.0005613098619505763</v>
       </c>
       <c r="EB14" t="n">
-        <v>3.670150181278586e-05</v>
+        <v>0.002916166558861732</v>
       </c>
       <c r="EC14" t="n">
-        <v>4.310859367251396e-06</v>
+        <v>0.0009467609925195575</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.001887373509816825</v>
+        <v>0.00277356430888176</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.001596362446434796</v>
+        <v>0.000548205163795501</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.0008333866135217249</v>
+        <v>0.001310722203925252</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.002923994557932019</v>
+        <v>0.0008722735801711679</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.000950653338804841</v>
+        <v>0.002482560696080327</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.003589015221223235</v>
+        <v>0.003037175163626671</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.0009546213550493121</v>
+        <v>9.034459799295291e-05</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.005324252415448427</v>
+        <v>0.0002574730897322297</v>
       </c>
       <c r="EL14" t="n">
-        <v>7.698102854192257e-05</v>
+        <v>0.0007270576898008585</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.003067558398470283</v>
+        <v>0.0008599237189628184</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.0002656906726770103</v>
+        <v>0.002681650454178452</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.0004147394502069801</v>
+        <v>0.001309953047893941</v>
       </c>
       <c r="EP14" t="n">
-        <v>2.722907811403275e-05</v>
+        <v>0.0006630508578382432</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.00390477292239666</v>
+        <v>0.001759825507178903</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.0008124860469251871</v>
+        <v>0.0006957834120839834</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.004060003906488419</v>
+        <v>9.848138870438561e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.001362735638394952</v>
+        <v>0.0007432421552948654</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.001469464972615242</v>
+        <v>0.0001221965503646061</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.0008570485515519977</v>
+        <v>0.004301280248910189</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.0005276248557493091</v>
+        <v>0.002921550069004297</v>
       </c>
       <c r="EX14" t="n">
-        <v>5.347761907614768e-05</v>
+        <v>0.001124256523326039</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.003097877372056246</v>
+        <v>0.0008761177305132151</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.002747345482930541</v>
+        <v>0.002031102310866117</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.003923745825886726</v>
+        <v>0.00153514149133116</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.0009748216252774</v>
+        <v>0.0009101474424824119</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.003805367741733789</v>
+        <v>0.001305451733060181</v>
       </c>
       <c r="FD14" t="n">
-        <v>3.59969271812588e-05</v>
+        <v>0.0003303181729279459</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.003656134940683842</v>
+        <v>0.0003410995996091515</v>
       </c>
       <c r="FF14" t="n">
-        <v>6.868969649076462e-06</v>
+        <v>0.002092983806505799</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.0001253943773917854</v>
+        <v>0.0002885099675040692</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.003030381631106138</v>
+        <v>0.001868123770691454</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.00150579062756151</v>
+        <v>0.0008781810756772757</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.006047832779586315</v>
+        <v>0.002440918004140258</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.00159165111836046</v>
+        <v>0.001090448698960245</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.0009574307478033006</v>
+        <v>0.0007146964780986309</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.0003716560313478112</v>
+        <v>0.00150820764247328</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.004982067737728357</v>
+        <v>0.00101121561601758</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.000256248633377254</v>
+        <v>0.001732982345856726</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.001318693626672029</v>
+        <v>0.003967606462538242</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.005820030346512794</v>
+        <v>0.002056091791018844</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.0009479272994212806</v>
+        <v>0.006704776547849178</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.003166572889313102</v>
+        <v>0.003182624001055956</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.002052546245977283</v>
+        <v>0.0005514348158612847</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.009296437725424767</v>
+        <v>0.002009633928537369</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.004625390283763409</v>
+        <v>0.0006783544085919857</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.006546194665133953</v>
+        <v>0.0008321734494529665</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.0003541912883520126</v>
+        <v>0.001536656985990703</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.0006789634935557842</v>
+        <v>0.0009681606898084283</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.001344574731774628</v>
+        <v>0.001443008193746209</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.0007528760470449924</v>
+        <v>0.003022783435881138</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.0008734871516935527</v>
+        <v>8.851816528476775e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.00181659881491214</v>
+        <v>0.002715733600780368</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.002355984877794981</v>
+        <v>0.003201938001438975</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.002898255363106728</v>
+        <v>0.0003145762602798641</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.0001906302641145885</v>
+        <v>0.001307276543229818</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.001260517747141421</v>
+        <v>0.0007910589338280261</v>
       </c>
     </row>
     <row r="15">
@@ -8970,1140 +8970,1140 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0006163549260236323</v>
+        <v>0.004291648976504803</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0001699888380244374</v>
+        <v>0.07614853978157043</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004890610580332577</v>
+        <v>0.005316010676324368</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00413874164223671</v>
+        <v>0.02183685451745987</v>
       </c>
       <c r="E16" t="n">
-        <v>0.007775254547595978</v>
+        <v>0.04060430452227592</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02705314382910728</v>
+        <v>0.02127567306160927</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004114567767828703</v>
+        <v>0.00961894728243351</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01978346891701221</v>
+        <v>0.01097032334655523</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001173850614577532</v>
+        <v>0.003475972451269627</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0004628613824024796</v>
+        <v>0.004256070591509342</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001026542624458671</v>
+        <v>0.06130330637097359</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001565702143125236</v>
+        <v>0.003701051697134972</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004171412438154221</v>
+        <v>0.009200782515108585</v>
       </c>
       <c r="N16" t="n">
-        <v>0.007967198267579079</v>
+        <v>0.03128543496131897</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02576040476560593</v>
+        <v>0.02366643399000168</v>
       </c>
       <c r="P16" t="n">
-        <v>0.002009865129366517</v>
+        <v>0.008789031766355038</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02087734080851078</v>
+        <v>0.004205838777124882</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0003433388192206621</v>
+        <v>0.0009585029329173267</v>
       </c>
       <c r="S16" t="n">
-        <v>0.003462670603767037</v>
+        <v>0.0009653079905547202</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0009796444792300463</v>
+        <v>0.008552908897399902</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002033885568380356</v>
+        <v>0.002527835313230753</v>
       </c>
       <c r="V16" t="n">
-        <v>0.003056553192436695</v>
+        <v>0.01434377208352089</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0005694411229342222</v>
+        <v>0.01758107542991638</v>
       </c>
       <c r="X16" t="n">
-        <v>0.006237855181097984</v>
+        <v>0.006641648709774017</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0008466853760182858</v>
+        <v>0.001230521709658206</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.004502926953136921</v>
+        <v>0.01030639931559563</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.002097952179610729</v>
+        <v>0.0001500945072621107</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.001525901723653078</v>
+        <v>0.003605050500482321</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.001140012522228062</v>
+        <v>0.01079303957521915</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.001785792293958366</v>
+        <v>0.00200793263502419</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.002571559278294444</v>
+        <v>0.0001670214114710689</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.01452167890965939</v>
+        <v>0.006162876728922129</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.006194364745169878</v>
+        <v>0.002489887410774827</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.003594172187149525</v>
+        <v>0.01058171410113573</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.006063424050807953</v>
+        <v>0.001515589538030326</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0003938407171517611</v>
+        <v>0.004616556223481894</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.000106193358078599</v>
+        <v>0.01089840196073055</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.000205297430511564</v>
+        <v>0.009122030809521675</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.003929874859750271</v>
+        <v>0.003814588999375701</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.002306751906871796</v>
+        <v>0.001470444491133094</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.004366928711533546</v>
+        <v>0.01302653644233942</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.002791169798001647</v>
+        <v>0.009223099797964096</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.001116637024097145</v>
+        <v>0.006435495335608721</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.0004373266128823161</v>
+        <v>0.0005811579758301377</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.001154414378106594</v>
+        <v>0.002643316052854061</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.0002408968866802752</v>
+        <v>0.01120006572455168</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.0009780597174540162</v>
+        <v>0.06131560355424881</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.004382136277854443</v>
+        <v>0.0009593130089342594</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.0002581881708465517</v>
+        <v>0.001823446713387966</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0005305929225869477</v>
+        <v>0.01290015503764153</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.01082746312022209</v>
+        <v>0.01480355206876993</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.001542258076369762</v>
+        <v>0.01104509085416794</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.004214903339743614</v>
+        <v>0.008351610042154789</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.0002303043147549033</v>
+        <v>0.00739777460694313</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.001505456632003188</v>
+        <v>0.003616366535425186</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.002109316643327475</v>
+        <v>0.02848353236913681</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.001848679734393954</v>
+        <v>0.009543486870825291</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.004493921995162964</v>
+        <v>0.004074057564139366</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.006330416072160006</v>
+        <v>0.02605319023132324</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.003021328244358301</v>
+        <v>0.0136001268401742</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.002098253462463617</v>
+        <v>0.001796363852918148</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.01102918293327093</v>
+        <v>0.01081238500773907</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.001283879042603076</v>
+        <v>0.004522529430687428</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.0001678459229879081</v>
+        <v>0.01167380437254906</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.0008431652095168829</v>
+        <v>0.03487251326441765</v>
       </c>
       <c r="BN16" t="n">
-        <v>8.974788943305612e-05</v>
+        <v>0.002471164800226688</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.001606090576387942</v>
+        <v>0.003033900167793036</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.00104434066452086</v>
+        <v>0.01985886879265308</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.004052497446537018</v>
+        <v>0.01074675843119621</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.004055207129567862</v>
+        <v>0.007756428327411413</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.0003507800865918398</v>
+        <v>0.002843939000740647</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.002947922796010971</v>
+        <v>0.0007792824180796742</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.00244833342730999</v>
+        <v>0.004518546629697084</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.001420471700839698</v>
+        <v>0.03323633223772049</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.0007251809583976865</v>
+        <v>0.01124447118490934</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.0007558327633887529</v>
+        <v>0.003319083945825696</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.004165225196629763</v>
+        <v>0.002029526978731155</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.0107572115957737</v>
+        <v>0.005849696695804596</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.0003664575051516294</v>
+        <v>0.003864144673570991</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.001224678242579103</v>
+        <v>0.002598205581307411</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.0008346743416041136</v>
+        <v>0.002705378457903862</v>
       </c>
       <c r="CD16" t="n">
-        <v>5.826499545946717e-05</v>
+        <v>0.002881271066144109</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.0001720591681078076</v>
+        <v>0.01060042437165976</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.0005985517636872828</v>
+        <v>0.002290830248966813</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.002320104511454701</v>
+        <v>0.004768888000398874</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.0007256482494994998</v>
+        <v>0.002974884584546089</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.004230375867336988</v>
+        <v>0.003205195534974337</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.0004015111189801246</v>
+        <v>0.005654723383486271</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.004085130989551544</v>
+        <v>0.002778851427137852</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.0005056337104178965</v>
+        <v>0.0006878533167764544</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.002575839404016733</v>
+        <v>0.01964759081602097</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.003416046733036637</v>
+        <v>0.02389253303408623</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.001844236860051751</v>
+        <v>0.0009923100005835295</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.00353431049734354</v>
+        <v>0.007195455953478813</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.004024853464215994</v>
+        <v>0.01246400829404593</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.007744064554572105</v>
+        <v>0.0003338283859193325</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.001020482392050326</v>
+        <v>0.002616804325953126</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.0005816583288833499</v>
+        <v>0.002996856346726418</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.004153674468398094</v>
+        <v>0.004119737073779106</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.0006137382006272674</v>
+        <v>0.002438527764752507</v>
       </c>
       <c r="CW16" t="n">
-        <v>1.142034307122231e-05</v>
+        <v>0.007254877127707005</v>
       </c>
       <c r="CX16" t="n">
-        <v>9.031390072777867e-05</v>
+        <v>0.003699162509292364</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.001663486007601023</v>
+        <v>0.00803699716925621</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.002013054676353931</v>
+        <v>0.00156030326616019</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.004545530769973993</v>
+        <v>0.002847344148904085</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.0006577131571248174</v>
+        <v>0.005037569440901279</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.005535281263291836</v>
+        <v>0.003874323796480894</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.001212161500006914</v>
+        <v>0.001203785301186144</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.004305647220462561</v>
+        <v>0.0004674163646996021</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.001859255484305322</v>
+        <v>0.007185455877333879</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.003118088468909264</v>
+        <v>0.005327568855136633</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.0004236547974869609</v>
+        <v>0.04704684391617775</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.008840485475957394</v>
+        <v>0.006121406331658363</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.007647665683180094</v>
+        <v>0.003823262173682451</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.003865397768095136</v>
+        <v>0.01306955143809319</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.0002448440063744783</v>
+        <v>0.0007197326049208641</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.0006339631509035826</v>
+        <v>0.008530363440513611</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.001816550968214869</v>
+        <v>0.008069658651947975</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.00170680065639317</v>
+        <v>0.008440154604613781</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.001221749931573868</v>
+        <v>0.01213463768362999</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.0025509730912745</v>
+        <v>0.006096439436078072</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.001393372775055468</v>
+        <v>0.00531566608697176</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.001595273963175714</v>
+        <v>0.004518904723227024</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.001052598236128688</v>
+        <v>0.001973031554371119</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.003847610671073198</v>
+        <v>0.001161026302725077</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.0004528121207840741</v>
+        <v>0.005045940633863211</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.0008254189742729068</v>
+        <v>0.006399485748261213</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.002460390795022249</v>
+        <v>0.006254274863749743</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.0005088234320282936</v>
+        <v>0.005293203983455896</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.0001993858022615314</v>
+        <v>0.00104412017390132</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.001126862596720457</v>
+        <v>0.00044294074177742</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.001918200170621276</v>
+        <v>0.003072201739996672</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.0002450352476444095</v>
+        <v>0.002294314559549093</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.0007235630182549357</v>
+        <v>0.005963527597486973</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.001734897377900779</v>
+        <v>0.001604481833055615</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.0007932396838441491</v>
+        <v>0.002641367726027966</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.003359041642397642</v>
+        <v>0.005027728620916605</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.001558906631544232</v>
+        <v>0.0009022934245876968</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.0003881256561726332</v>
+        <v>0.003403755836188793</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.005356102716177702</v>
+        <v>0.004677615128457546</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.00421978160738945</v>
+        <v>0.002269569784402847</v>
       </c>
       <c r="EL16" t="n">
-        <v>0.0004079579084645957</v>
+        <v>0.005490719806402922</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.003832110203802586</v>
+        <v>5.246629007160664e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.0009699354413896799</v>
+        <v>0.000102766789495945</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.0009510467643849552</v>
+        <v>0.01255717594176531</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.002946638036519289</v>
+        <v>0.004025742411613464</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.001644429168663919</v>
+        <v>0.007475042715668678</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.0007191562908701599</v>
+        <v>0.01045502256602049</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.004962783306837082</v>
+        <v>0.00452593294903636</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.004993998445570469</v>
+        <v>0.008636606857180595</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.001098625711165369</v>
+        <v>0.003935971762984991</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.00429840199649334</v>
+        <v>0.01041263528168201</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.00133388361427933</v>
+        <v>0.001607837271876633</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.0001619126996956766</v>
+        <v>0.002047221641987562</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.0006822070572525263</v>
+        <v>0.005746032111346722</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.0001648440374992788</v>
+        <v>0.001972031546756625</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.002071242546662688</v>
+        <v>0.003758846782147884</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.0008683324558660388</v>
+        <v>0.003086317330598831</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.00425382936373353</v>
+        <v>0.005760172847658396</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.0006679835496470332</v>
+        <v>0.007208008319139481</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.005694593768566847</v>
+        <v>0.002767494414001703</v>
       </c>
       <c r="FF16" t="n">
-        <v>9.593457798473537e-05</v>
+        <v>0.0008270188118331134</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.0004854273865930736</v>
+        <v>0.001116106286644936</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.0005302531644701958</v>
+        <v>0.009564911015331745</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.0005259665194898844</v>
+        <v>0.002076775068417192</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.002487736521288753</v>
+        <v>0.008688956499099731</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.0006766222650185227</v>
+        <v>0.007020801771432161</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.00490083172917366</v>
+        <v>0.0063466583378613</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.002006927970796824</v>
+        <v>0.006857836153358221</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.003213384887203574</v>
+        <v>0.001146133523434401</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.004672933835536242</v>
+        <v>0.003156080143526196</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.0005628331564366817</v>
+        <v>0.0182024147361517</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.0003250561421737075</v>
+        <v>0.002809512661769986</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.001224807230755687</v>
+        <v>0.008415217511355877</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.00826484989374876</v>
+        <v>0.005425000563263893</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.002693677321076393</v>
+        <v>0.007088025100529194</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.007958068512380123</v>
+        <v>0.006360067054629326</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.004237727262079716</v>
+        <v>0.004690460860729218</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.001206670887768269</v>
+        <v>0.0009021464502438903</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.002770015969872475</v>
+        <v>0.007045084610581398</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.000893082469701767</v>
+        <v>0.01229327823966742</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.0002647953806445003</v>
+        <v>0.01143160834908485</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.004244350362569094</v>
+        <v>0.006637595593929291</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.0006669707945547998</v>
+        <v>0.001000254182145</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.004416504874825478</v>
+        <v>0.001139408792369068</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.004574067890644073</v>
+        <v>0.01637857593595982</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.000976088282186538</v>
+        <v>0.01273428183048964</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.00433725118637085</v>
+        <v>0.003122302005067468</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.001644602743908763</v>
+        <v>0.003085733158513904</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.00174273201264441</v>
+        <v>0.0004143056576140225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01636406406760216</v>
+        <v>0.01894703879952431</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005484611028805375</v>
+        <v>0.002730022417381406</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001790926791727543</v>
+        <v>0.0127438697963953</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006502408999949694</v>
+        <v>0.007956280373036861</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01755643449723721</v>
+        <v>0.001316843088716269</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001176429912447929</v>
+        <v>0.003963831812143326</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001172157819382846</v>
+        <v>0.002745423465967178</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002833947073668242</v>
+        <v>0.000689624052029103</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00127423251979053</v>
+        <v>0.0004582373658195138</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01497353054583073</v>
+        <v>0.01431068126112223</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004601943306624889</v>
+        <v>0.0002239497116534039</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002155117224901915</v>
+        <v>0.01036118157207966</v>
       </c>
       <c r="N17" t="n">
-        <v>0.004517511930316687</v>
+        <v>0.008824232034385204</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02081341482698917</v>
+        <v>0.003737324615940452</v>
       </c>
       <c r="P17" t="n">
-        <v>0.001336477696895599</v>
+        <v>0.003484122455120087</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.007484949193894863</v>
+        <v>0.001033908105455339</v>
       </c>
       <c r="R17" t="n">
-        <v>0.001811714260838926</v>
+        <v>0.001952418708242476</v>
       </c>
       <c r="S17" t="n">
-        <v>0.001529197441413999</v>
+        <v>0.0005726731615141034</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0005590049549937248</v>
+        <v>0.003711060620844364</v>
       </c>
       <c r="U17" t="n">
-        <v>0.001582708908244967</v>
+        <v>0.0007971688755787909</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0007207848830148578</v>
+        <v>0.002088733715936542</v>
       </c>
       <c r="W17" t="n">
-        <v>0.000405732193030417</v>
+        <v>0.0007787046488374472</v>
       </c>
       <c r="X17" t="n">
-        <v>0.00542612187564373</v>
+        <v>0.002332970965653658</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.002375767799094319</v>
+        <v>0.002233752980828285</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.003591792657971382</v>
+        <v>0.002012343611568213</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.002533463528379798</v>
+        <v>0.001848484273068607</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.004304291680455208</v>
+        <v>0.0004749201470986009</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.004784791730344296</v>
+        <v>0.002541914815083146</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0006024316535331309</v>
+        <v>0.0009328324813395739</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0002362287777941674</v>
+        <v>0.00126810057554394</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.006928754039108753</v>
+        <v>0.001164189889095724</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0002764819073490798</v>
+        <v>0.00108318857382983</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.001033821259625256</v>
+        <v>0.002103989711031318</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.00289399828761816</v>
+        <v>0.00078593660145998</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.001745234942063689</v>
+        <v>0.001307176193222404</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.0002195349661633372</v>
+        <v>0.0007984195835888386</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.004946813452988863</v>
+        <v>0.003263428341597319</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.0001472294825362042</v>
+        <v>0.0007305124308913946</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.644808359444141e-05</v>
+        <v>0.0001683358859736472</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.001757808960974216</v>
+        <v>0.001468558330088854</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.003437669016420841</v>
+        <v>0.00178444292396307</v>
       </c>
       <c r="AQ17" t="n">
-        <v>7.582141552120447e-05</v>
+        <v>0.001698908861726522</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.001652222243137658</v>
+        <v>0.001692630350589752</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.0004060917999595404</v>
+        <v>0.0008091133204288781</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.0006704428233206272</v>
+        <v>0.00189244607463479</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.009983022697269917</v>
+        <v>0.01380835846066475</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.0003679955843836069</v>
+        <v>0.001472327508963645</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.005082250572741032</v>
+        <v>0.002253938000649214</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.0001412483834428713</v>
+        <v>0.002448357408866286</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.008966822177171707</v>
+        <v>0.0003370319900568575</v>
       </c>
       <c r="AZ17" t="n">
-        <v>7.449882104992867e-06</v>
+        <v>0.00153275253251195</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.001059507136233151</v>
+        <v>0.001160869025625288</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.0009433734812773764</v>
+        <v>9.737221262184903e-05</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.003534031100571156</v>
+        <v>0.0008019386441446841</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.001246314262971282</v>
+        <v>0.00326509540900588</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.001452076015993953</v>
+        <v>0.003012493951246142</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.005836001597344875</v>
+        <v>0.004135034047067165</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.0009602576610632241</v>
+        <v>0.006541213486343622</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.003230786649510264</v>
+        <v>0.0007915892056189477</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.0007738850545138121</v>
+        <v>0.002775652566924691</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.00308022927492857</v>
+        <v>0.001568559906445444</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.002849286422133446</v>
+        <v>0.0010992840398103</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.002595469355583191</v>
+        <v>0.00264706090092659</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.003356144996359944</v>
+        <v>0.004091044887900352</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.0007335157715715468</v>
+        <v>0.002427505562081933</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.001977643463760614</v>
+        <v>0.0004423930367920548</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.003766717622056603</v>
+        <v>0.002094315597787499</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.001452639000490308</v>
+        <v>0.001847609179094434</v>
       </c>
       <c r="BR17" t="n">
-        <v>4.073626769240946e-05</v>
+        <v>0.0004975730553269386</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.004971337970346212</v>
+        <v>0.0007841807091608644</v>
       </c>
       <c r="BT17" t="n">
-        <v>0.003897236892953515</v>
+        <v>0.0007548155845142901</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.001675143372267485</v>
+        <v>0.002120373770594597</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.006347170565277338</v>
+        <v>0.008284459821879864</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.0002790596045088023</v>
+        <v>0.003211807459592819</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.00119416113011539</v>
+        <v>0.00229471200145781</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.001423669396899641</v>
+        <v>0.0007073840242810547</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.005458356346935034</v>
+        <v>0.002178536262363195</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.0006834433879703283</v>
+        <v>0.001436538062989712</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.0004174290806986392</v>
+        <v>0.001143384142778814</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.0007263342849910259</v>
+        <v>0.002055331831797957</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.001718481886200607</v>
+        <v>0.0005018889787606895</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.003607878461480141</v>
+        <v>0.002935984171926975</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.00014853487664368</v>
+        <v>0.0009837702382355928</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.001181190484203398</v>
+        <v>0.001639197929762304</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.001344071584753692</v>
+        <v>0.0002404222905170172</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.003081410191953182</v>
+        <v>0.0009451226214878261</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.001015699235722423</v>
+        <v>0.0008694078424014151</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.0007721353904344141</v>
+        <v>0.0002457860100548714</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.0006351526826620102</v>
+        <v>0.0007859347970224917</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.0001865377416834235</v>
+        <v>0.003468470415100455</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.001149027957580984</v>
+        <v>0.001965688774362206</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.001537904259748757</v>
+        <v>0.0001477203913964331</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.00176073145121336</v>
+        <v>0.001380785135552287</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.002853587036952376</v>
+        <v>0.001625489792786539</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.003279953729361296</v>
+        <v>0.0001044533273670822</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.002113469876348972</v>
+        <v>0.002492205239832401</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.002258272375911474</v>
+        <v>0.00362962600775063</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.0005763627705164254</v>
+        <v>0.0006629892741329968</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.002379428828135133</v>
+        <v>0.0005896052462048829</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.003681872272863984</v>
+        <v>0.002243354683741927</v>
       </c>
       <c r="CX17" t="n">
-        <v>6.935105921002105e-05</v>
+        <v>0.001466057728976011</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.0005123845185153186</v>
+        <v>0.002253298182040453</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.00162681972142309</v>
+        <v>6.65863772155717e-05</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.002223905874416232</v>
+        <v>0.001439173240214586</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.001311645610257983</v>
+        <v>0.000771836144849658</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.0001207226887345314</v>
+        <v>0.0004294119426049292</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.0009074695990420878</v>
+        <v>4.446739330887794e-05</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.00452923821285367</v>
+        <v>0.0006168020190671086</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.002286616247147322</v>
+        <v>0.00396361481398344</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.003445668611675501</v>
+        <v>3.670326987048611e-05</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.002840057481080294</v>
+        <v>0.008079413324594498</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.006006254348903894</v>
+        <v>0.001062733819708228</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.003797691781073809</v>
+        <v>0.002709171269088984</v>
       </c>
       <c r="DK17" t="n">
-        <v>0.004646191373467445</v>
+        <v>0.001673477119766176</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.001293611479923129</v>
+        <v>0.00091331492876634</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.003087272401899099</v>
+        <v>0.000556513958144933</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.0006006236653774977</v>
+        <v>0.000999729847535491</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.0004360934253782034</v>
+        <v>0.0007981607923284173</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.002388255205005407</v>
+        <v>0.0002295806189067662</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.001512372167780995</v>
+        <v>0.001036558533087373</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.0006190293934196234</v>
+        <v>0.001763200736604631</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.002159493509680033</v>
+        <v>7.070397259667516e-05</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.001256744842976332</v>
+        <v>0.001410309574566782</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.0006137707969173789</v>
+        <v>0.001362343900837004</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.001648579724133015</v>
+        <v>0.0016501973150298</v>
       </c>
       <c r="DW17" t="n">
-        <v>1.116654311772436e-05</v>
+        <v>0.0001983006513910368</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.001842613215558231</v>
+        <v>0.0005868833977729082</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.001134866732172668</v>
+        <v>0.001079747220501304</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.001996557228267193</v>
+        <v>0.001121436478570104</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.0003938504669349641</v>
+        <v>0.002436260227113962</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.0008250839891843498</v>
+        <v>0.001276994240470231</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.001540692872367799</v>
+        <v>0.00056366843637079</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.002144184662029147</v>
+        <v>0.0007105825352482498</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.0003113033017143607</v>
+        <v>0.0007818184676580131</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.003489556256681681</v>
+        <v>2.009968739002943e-05</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.004333258140832186</v>
+        <v>0.002017669146880507</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.001045263255946338</v>
+        <v>0.001435866812244058</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.0001412451092619449</v>
+        <v>0.001352780032902956</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.003902897471562028</v>
+        <v>0.001933492487296462</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.00177269778214395</v>
+        <v>0.001816855743527412</v>
       </c>
       <c r="EL17" t="n">
-        <v>1.34243891807273e-05</v>
+        <v>0.0008675493882037699</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.000761976873036474</v>
+        <v>0.0001863570214482024</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.001649272395297885</v>
+        <v>0.0002324947708984837</v>
       </c>
       <c r="EO17" t="n">
-        <v>0.0009818087564781308</v>
+        <v>0.0002705066581256688</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.000613663753028959</v>
+        <v>0.0009475532569922507</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.000637073942925781</v>
+        <v>0.00266963173635304</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.0011277039302513</v>
+        <v>0.001272860914468765</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.002682124730199575</v>
+        <v>0.0002029549214057624</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.001772838062606752</v>
+        <v>0.002799508860334754</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.003139025531709194</v>
+        <v>0.001202836632728577</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.0002319825580343604</v>
+        <v>0.001704782014712691</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.002554623410105705</v>
+        <v>0.0001169858587672934</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.002378265373408794</v>
+        <v>9.429760393686593e-05</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.004271354991942644</v>
+        <v>0.002387701068073511</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.0002915320510510355</v>
+        <v>0.001094709034077823</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.0006655944744125009</v>
+        <v>0.002542849397286773</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.001432775054126978</v>
+        <v>0.0004850226687267423</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.002832916332408786</v>
+        <v>0.001409980235621333</v>
       </c>
       <c r="FD17" t="n">
-        <v>0.001111035002395511</v>
+        <v>0.001037256559357047</v>
       </c>
       <c r="FE17" t="n">
-        <v>8.721818448975682e-05</v>
+        <v>0.0003357979585416615</v>
       </c>
       <c r="FF17" t="n">
-        <v>0.0005620567826554179</v>
+        <v>0.0006386686582118273</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.002528165001422167</v>
+        <v>0.0005269662942737341</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.003404326736927032</v>
+        <v>0.001700358232483268</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.003247846616432071</v>
+        <v>0.001148008974269032</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.0002514963853172958</v>
+        <v>0.002053787931799889</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.003498282516375184</v>
+        <v>0.001084404299035668</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.004455923102796078</v>
+        <v>0.001238456112332642</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.001376730157062411</v>
+        <v>0.0003878040297422558</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.001576913986355066</v>
+        <v>0.0003439640568103641</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.0004221280105412006</v>
+        <v>4.146212449995801e-05</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.0002051124756690115</v>
+        <v>6.564334034919739e-05</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.004010478965938091</v>
+        <v>0.002409696113318205</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.002818140434101224</v>
+        <v>0.003435387741774321</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.003948140423744917</v>
+        <v>0.001916344510391355</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.002704157959669828</v>
+        <v>7.169050513766706e-05</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.004755317699164152</v>
+        <v>0.002304274821653962</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.00112906820140779</v>
+        <v>0.001308309729211032</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.0002819083747453988</v>
+        <v>0.0005038888775743544</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.0007633320055902004</v>
+        <v>0.0005846074782311916</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.001990454737097025</v>
+        <v>0.002582433633506298</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.001992886420339346</v>
+        <v>9.999338362831622e-05</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.0004532816237770021</v>
+        <v>0.001161291846074164</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.003163680667057633</v>
+        <v>0.001075188396498561</v>
       </c>
       <c r="GC17" t="n">
-        <v>0.001101706642657518</v>
+        <v>0.0001161110631073825</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.0004995438503101468</v>
+        <v>0.002734127687290311</v>
       </c>
       <c r="GE17" t="n">
-        <v>3.44081490766257e-05</v>
+        <v>0.007577483542263508</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.005906956270337105</v>
+        <v>0.001384860835969448</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.00219339388422668</v>
+        <v>0.0006469401414506137</v>
       </c>
     </row>
   </sheetData>
